--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15932.46073000848</v>
+        <v>-27514.7415076058</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25618806.90514331</v>
+        <v>25618806.9051433</v>
       </c>
     </row>
     <row r="8">
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>13.80934987914306</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>13.80934987914306</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5.171234739911176</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8.638115139231887</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>13.80934987914306</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="W18" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>15.67819014434952</v>
+        <v>13.80934987914306</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="V19" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="W19" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>13.80934987914306</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,64 +2080,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>15.67819014434953</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>13.80934987914306</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>15.67819014434952</v>
-      </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="T21" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="V21" t="n">
-        <v>15.67819014434952</v>
+        <v>13.80934987914306</v>
       </c>
       <c r="W21" t="n">
-        <v>13.80934987914306</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2241,73 +2241,73 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>13.80934987914306</v>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
       <c r="S22" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="T22" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="U23" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="W23" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>33.05581137020567</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>37.52930446208639</v>
+        <v>33.05581137020574</v>
       </c>
       <c r="T24" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>33.05581137020567</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="T25" t="n">
-        <v>33.05581137020567</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="U25" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>37.52930446208639</v>
+        <v>33.05581137020574</v>
       </c>
       <c r="V26" t="n">
-        <v>33.05581137020567</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>33.05581137020567</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="U27" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>37.52930446208639</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="H28" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="U28" t="n">
-        <v>33.05581137020567</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>33.05581137020567</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>37.52930446208639</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="W29" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>33.05581137020567</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.05581137020567</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>33.05581137020574</v>
       </c>
       <c r="T31" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="V31" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>33.05581137020567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>33.05581137020567</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="W33" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="U34" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>33.05581137020567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>33.05581137020565</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>33.05581137020574</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>33.05581137020565</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.816603577462473</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="U36" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="V36" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>26.23920779274325</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>33.05581137020564</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="W38" t="n">
-        <v>33.05581137020564</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.816603577462478</v>
+        <v>6.816603577462473</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,19 +3635,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>26.23920779274325</v>
       </c>
       <c r="V39" t="n">
-        <v>26.23920779274317</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>33.05581137020565</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="T40" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="U40" t="n">
-        <v>37.52930446208636</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>33.05581137020564</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>33.05581137020574</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="F41" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3827,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>33.05581137020574</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>33.05581137020565</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>33.05581137020574</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.05581137020564</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="V43" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.52930446208634</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>37.52930446208634</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="V44" t="n">
-        <v>37.52930446208634</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>33.05581137020563</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>37.52930446208634</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>37.52930446208634</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>37.52930446208634</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="W45" t="n">
-        <v>33.05581137020563</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>37.52930446208634</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.52930446208634</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="S46" t="n">
-        <v>37.52930446208634</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="U46" t="n">
-        <v>33.05581137020563</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>33.05581137020572</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>32.92736661427428</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32.92736661427428</v>
+      </c>
+      <c r="D17" t="n">
+        <v>32.92736661427428</v>
+      </c>
+      <c r="E17" t="n">
         <v>17.09081091291112</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.254255211547962</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.254255211547962</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.254255211547962</v>
       </c>
       <c r="F17" t="n">
         <v>1.254255211547962</v>
@@ -5521,46 +5521,46 @@
         <v>1.254255211547962</v>
       </c>
       <c r="L17" t="n">
-        <v>7.670389724712636</v>
+        <v>7.670389724712637</v>
       </c>
       <c r="M17" t="n">
-        <v>23.19179796761866</v>
+        <v>23.19179796761867</v>
       </c>
       <c r="N17" t="n">
-        <v>38.71320621052469</v>
+        <v>38.7132062105247</v>
       </c>
       <c r="O17" t="n">
-        <v>54.23461445343072</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="P17" t="n">
-        <v>54.23461445343072</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="R17" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="S17" t="n">
-        <v>62.71276057739809</v>
+        <v>48.76392231563744</v>
       </c>
       <c r="T17" t="n">
-        <v>62.71276057739809</v>
+        <v>32.92736661427428</v>
       </c>
       <c r="U17" t="n">
-        <v>62.71276057739809</v>
+        <v>32.92736661427428</v>
       </c>
       <c r="V17" t="n">
-        <v>62.71276057739809</v>
+        <v>32.92736661427428</v>
       </c>
       <c r="W17" t="n">
-        <v>48.76392231563742</v>
+        <v>32.92736661427428</v>
       </c>
       <c r="X17" t="n">
-        <v>32.92736661427427</v>
+        <v>32.92736661427428</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.09081091291112</v>
+        <v>32.92736661427428</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.254255211547962</v>
+        <v>46.87620487603495</v>
       </c>
       <c r="C18" t="n">
-        <v>1.254255211547962</v>
+        <v>46.87620487603495</v>
       </c>
       <c r="D18" t="n">
-        <v>1.254255211547962</v>
+        <v>31.03964917467179</v>
       </c>
       <c r="E18" t="n">
-        <v>1.254255211547962</v>
+        <v>15.20309347330863</v>
       </c>
       <c r="F18" t="n">
-        <v>1.254255211547962</v>
+        <v>9.979624039054919</v>
       </c>
       <c r="G18" t="n">
-        <v>1.254255211547962</v>
+        <v>9.979624039054919</v>
       </c>
       <c r="H18" t="n">
-        <v>1.254255211547962</v>
+        <v>9.979624039054919</v>
       </c>
       <c r="I18" t="n">
         <v>1.254255211547962</v>
@@ -5600,46 +5600,46 @@
         <v>1.254255211547962</v>
       </c>
       <c r="L18" t="n">
-        <v>4.508877824164813</v>
+        <v>4.50887782416482</v>
       </c>
       <c r="M18" t="n">
-        <v>20.03028606707084</v>
+        <v>20.03028606707085</v>
       </c>
       <c r="N18" t="n">
-        <v>35.55169430997687</v>
+        <v>35.55169430997689</v>
       </c>
       <c r="O18" t="n">
-        <v>51.07310255288289</v>
+        <v>51.07310255288292</v>
       </c>
       <c r="P18" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="Q18" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="R18" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="S18" t="n">
-        <v>48.76392231563742</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="T18" t="n">
-        <v>48.76392231563742</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="U18" t="n">
-        <v>48.76392231563742</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="V18" t="n">
-        <v>32.92736661427427</v>
+        <v>46.87620487603495</v>
       </c>
       <c r="W18" t="n">
-        <v>17.09081091291112</v>
+        <v>46.87620487603495</v>
       </c>
       <c r="X18" t="n">
-        <v>17.09081091291112</v>
+        <v>46.87620487603495</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.254255211547962</v>
+        <v>46.87620487603495</v>
       </c>
     </row>
     <row r="19">
@@ -5673,46 +5673,46 @@
         <v>1.254255211547962</v>
       </c>
       <c r="J19" t="n">
-        <v>16.77566345445399</v>
+        <v>16.775663454454</v>
       </c>
       <c r="K19" t="n">
-        <v>16.77566345445399</v>
+        <v>16.775663454454</v>
       </c>
       <c r="L19" t="n">
-        <v>32.29707169736001</v>
+        <v>16.775663454454</v>
       </c>
       <c r="M19" t="n">
-        <v>47.81847994026604</v>
+        <v>16.775663454454</v>
       </c>
       <c r="N19" t="n">
-        <v>62.71276057739809</v>
+        <v>32.29707169736003</v>
       </c>
       <c r="O19" t="n">
-        <v>62.71276057739809</v>
+        <v>47.81847994026607</v>
       </c>
       <c r="P19" t="n">
-        <v>62.71276057739809</v>
+        <v>47.81847994026607</v>
       </c>
       <c r="Q19" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="R19" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="S19" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="T19" t="n">
-        <v>46.87620487603493</v>
+        <v>48.76392231563744</v>
       </c>
       <c r="U19" t="n">
-        <v>46.87620487603493</v>
+        <v>32.92736661427428</v>
       </c>
       <c r="V19" t="n">
-        <v>31.03964917467178</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="W19" t="n">
-        <v>15.20309347330863</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="X19" t="n">
         <v>1.254255211547962</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.03964917467178</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="C20" t="n">
-        <v>15.20309347330863</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="D20" t="n">
         <v>1.254255211547962</v>
@@ -5758,46 +5758,46 @@
         <v>1.254255211547962</v>
       </c>
       <c r="L20" t="n">
-        <v>7.670389724712622</v>
+        <v>7.670389724712637</v>
       </c>
       <c r="M20" t="n">
-        <v>23.19179796761865</v>
+        <v>23.19179796761867</v>
       </c>
       <c r="N20" t="n">
-        <v>38.71320621052467</v>
+        <v>38.7132062105247</v>
       </c>
       <c r="O20" t="n">
-        <v>54.2346144534307</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="P20" t="n">
-        <v>54.2346144534307</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.2346144534307</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="R20" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="S20" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="T20" t="n">
-        <v>46.87620487603493</v>
+        <v>48.76392231563744</v>
       </c>
       <c r="U20" t="n">
-        <v>46.87620487603493</v>
+        <v>32.92736661427428</v>
       </c>
       <c r="V20" t="n">
-        <v>46.87620487603493</v>
+        <v>32.92736661427428</v>
       </c>
       <c r="W20" t="n">
-        <v>46.87620487603493</v>
+        <v>32.92736661427428</v>
       </c>
       <c r="X20" t="n">
-        <v>46.87620487603493</v>
+        <v>32.92736661427428</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.87620487603493</v>
+        <v>17.09081091291112</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.254255211547962</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="C21" t="n">
-        <v>1.254255211547962</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="D21" t="n">
-        <v>1.254255211547962</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="E21" t="n">
-        <v>1.254255211547962</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="F21" t="n">
-        <v>1.254255211547962</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="G21" t="n">
         <v>1.254255211547962</v>
@@ -5837,46 +5837,46 @@
         <v>1.254255211547962</v>
       </c>
       <c r="L21" t="n">
-        <v>16.77566345445399</v>
+        <v>16.775663454454</v>
       </c>
       <c r="M21" t="n">
-        <v>32.29707169736001</v>
+        <v>32.29707169736003</v>
       </c>
       <c r="N21" t="n">
-        <v>47.19135233449206</v>
+        <v>47.19135233449208</v>
       </c>
       <c r="O21" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="P21" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="Q21" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="R21" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="S21" t="n">
-        <v>62.71276057739809</v>
+        <v>46.87620487603495</v>
       </c>
       <c r="T21" t="n">
-        <v>46.87620487603493</v>
+        <v>46.87620487603495</v>
       </c>
       <c r="U21" t="n">
-        <v>31.03964917467178</v>
+        <v>31.03964917467179</v>
       </c>
       <c r="V21" t="n">
-        <v>15.20309347330863</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="W21" t="n">
-        <v>1.254255211547962</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="X21" t="n">
-        <v>1.254255211547962</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.254255211547962</v>
+        <v>17.09081091291112</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.20309347330863</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="C22" t="n">
         <v>1.254255211547962</v>
@@ -5919,43 +5919,43 @@
         <v>1.254255211547962</v>
       </c>
       <c r="M22" t="n">
-        <v>16.14853584868001</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="N22" t="n">
-        <v>16.14853584868001</v>
+        <v>16.775663454454</v>
       </c>
       <c r="O22" t="n">
-        <v>31.66994409158603</v>
+        <v>31.66994409158605</v>
       </c>
       <c r="P22" t="n">
-        <v>47.19135233449206</v>
+        <v>47.19135233449208</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="R22" t="n">
-        <v>62.71276057739809</v>
+        <v>48.76392231563744</v>
       </c>
       <c r="S22" t="n">
-        <v>46.87620487603493</v>
+        <v>32.92736661427428</v>
       </c>
       <c r="T22" t="n">
-        <v>31.03964917467178</v>
+        <v>32.92736661427428</v>
       </c>
       <c r="U22" t="n">
-        <v>31.03964917467178</v>
+        <v>32.92736661427428</v>
       </c>
       <c r="V22" t="n">
-        <v>31.03964917467178</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="W22" t="n">
-        <v>31.03964917467178</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="X22" t="n">
-        <v>31.03964917467178</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.20309347330863</v>
+        <v>1.254255211547962</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.002344356966911</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="C23" t="n">
-        <v>3.002344356966911</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="D23" t="n">
-        <v>3.002344356966911</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="E23" t="n">
-        <v>3.002344356966911</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="F23" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="G23" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="H23" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I23" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J23" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="K23" t="n">
-        <v>8.579347327526861</v>
+        <v>8.579347327526907</v>
       </c>
       <c r="L23" t="n">
-        <v>30.44332621730847</v>
+        <v>30.44332621730857</v>
       </c>
       <c r="M23" t="n">
-        <v>67.59733763477399</v>
+        <v>67.59733763477416</v>
       </c>
       <c r="N23" t="n">
-        <v>104.7513490522395</v>
+        <v>104.7513490522397</v>
       </c>
       <c r="O23" t="n">
-        <v>136.7661938505103</v>
+        <v>136.7661938505105</v>
       </c>
       <c r="P23" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R23" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S23" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="T23" t="n">
-        <v>150.1172178483455</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="U23" t="n">
-        <v>112.2088295028037</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="V23" t="n">
-        <v>74.30044115726193</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="W23" t="n">
-        <v>36.39205281172012</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="X23" t="n">
-        <v>3.002344356966911</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.002344356966911</v>
+        <v>74.30044115726204</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.002344356966911</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="C24" t="n">
-        <v>3.002344356966911</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="D24" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="E24" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="F24" t="n">
-        <v>3.002344356966911</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="G24" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="H24" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I24" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J24" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="K24" t="n">
-        <v>8.95627349854113</v>
+        <v>11.45991954906474</v>
       </c>
       <c r="L24" t="n">
-        <v>39.08915624175957</v>
+        <v>41.59280229228322</v>
       </c>
       <c r="M24" t="n">
-        <v>76.24316765922509</v>
+        <v>76.24316765922525</v>
       </c>
       <c r="N24" t="n">
-        <v>113.3971790766906</v>
+        <v>113.3971790766908</v>
       </c>
       <c r="O24" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="P24" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R24" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S24" t="n">
-        <v>112.2088295028037</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="T24" t="n">
-        <v>74.30044115726193</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="U24" t="n">
-        <v>74.30044115726193</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="V24" t="n">
-        <v>36.39205281172012</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="W24" t="n">
-        <v>3.002344356966911</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="X24" t="n">
-        <v>3.002344356966911</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.002344356966911</v>
+        <v>116.7275093935925</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.002344356966911</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="C25" t="n">
-        <v>3.002344356966911</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="D25" t="n">
-        <v>3.002344356966911</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="E25" t="n">
-        <v>3.002344356966911</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="F25" t="n">
-        <v>3.002344356966911</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="G25" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="H25" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I25" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J25" t="n">
-        <v>40.15635577443243</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="K25" t="n">
-        <v>77.31036719189797</v>
+        <v>40.1563557744325</v>
       </c>
       <c r="L25" t="n">
-        <v>114.4643786093635</v>
+        <v>40.1563557744325</v>
       </c>
       <c r="M25" t="n">
-        <v>150.1172178483455</v>
+        <v>40.1563557744325</v>
       </c>
       <c r="N25" t="n">
-        <v>150.1172178483455</v>
+        <v>75.80919501341464</v>
       </c>
       <c r="O25" t="n">
-        <v>150.1172178483455</v>
+        <v>75.80919501341464</v>
       </c>
       <c r="P25" t="n">
-        <v>150.1172178483455</v>
+        <v>112.9632064308802</v>
       </c>
       <c r="Q25" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R25" t="n">
-        <v>150.1172178483455</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="S25" t="n">
-        <v>150.1172178483455</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="T25" t="n">
-        <v>116.7275093935923</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="U25" t="n">
-        <v>78.81912104805053</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="V25" t="n">
-        <v>78.81912104805053</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="W25" t="n">
-        <v>78.81912104805053</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="X25" t="n">
-        <v>78.81912104805053</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="Y25" t="n">
-        <v>40.91073270250872</v>
+        <v>36.39205281172017</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="C26" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="D26" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="E26" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="F26" t="n">
-        <v>3.002344356966911</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="G26" t="n">
-        <v>3.002344356966911</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="H26" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I26" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J26" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966881</v>
       </c>
       <c r="K26" t="n">
-        <v>8.579347327526861</v>
+        <v>8.579347327526886</v>
       </c>
       <c r="L26" t="n">
-        <v>30.44332621730855</v>
+        <v>30.44332621730857</v>
       </c>
       <c r="M26" t="n">
-        <v>67.59733763477408</v>
+        <v>67.59733763477415</v>
       </c>
       <c r="N26" t="n">
-        <v>104.7513490522396</v>
+        <v>104.7513490522397</v>
       </c>
       <c r="O26" t="n">
-        <v>136.7661938505103</v>
+        <v>136.7661938505105</v>
       </c>
       <c r="P26" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R26" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S26" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="T26" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="U26" t="n">
-        <v>74.30044115726193</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="V26" t="n">
-        <v>40.91073270250872</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="W26" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="X26" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805066</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.39205281172012</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="C27" t="n">
-        <v>36.39205281172012</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="D27" t="n">
-        <v>36.39205281172012</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="E27" t="n">
-        <v>36.39205281172012</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="F27" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="G27" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="H27" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I27" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J27" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="K27" t="n">
-        <v>11.4599195490647</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="L27" t="n">
-        <v>41.59280229228314</v>
+        <v>33.13522710018541</v>
       </c>
       <c r="M27" t="n">
-        <v>78.74681370974866</v>
+        <v>70.289238517651</v>
       </c>
       <c r="N27" t="n">
-        <v>115.9008251272142</v>
+        <v>107.4432499351166</v>
       </c>
       <c r="O27" t="n">
-        <v>128.4760412668172</v>
+        <v>144.1632887067716</v>
       </c>
       <c r="P27" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R27" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S27" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="T27" t="n">
-        <v>150.1172178483455</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="U27" t="n">
-        <v>112.2088295028037</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="V27" t="n">
-        <v>112.2088295028037</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="W27" t="n">
-        <v>112.2088295028037</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="X27" t="n">
-        <v>74.30044115726193</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.39205281172012</v>
+        <v>74.30044115726204</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>116.7275093935923</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="C28" t="n">
-        <v>116.7275093935923</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="D28" t="n">
-        <v>116.7275093935923</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="E28" t="n">
-        <v>116.7275093935923</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="F28" t="n">
-        <v>116.7275093935923</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="G28" t="n">
-        <v>78.81912104805053</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="H28" t="n">
-        <v>40.91073270250872</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I28" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J28" t="n">
-        <v>3.002344356966911</v>
+        <v>40.1563557744325</v>
       </c>
       <c r="K28" t="n">
-        <v>3.002344356966911</v>
+        <v>77.31036719189808</v>
       </c>
       <c r="L28" t="n">
-        <v>3.002344356966911</v>
+        <v>77.31036719189808</v>
       </c>
       <c r="M28" t="n">
-        <v>40.15635577443243</v>
+        <v>114.4643786093637</v>
       </c>
       <c r="N28" t="n">
-        <v>77.31036719189797</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="O28" t="n">
-        <v>114.4643786093635</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="P28" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q28" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R28" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S28" t="n">
-        <v>150.1172178483455</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="T28" t="n">
-        <v>150.1172178483455</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="U28" t="n">
-        <v>116.7275093935923</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="V28" t="n">
-        <v>116.7275093935923</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="W28" t="n">
-        <v>116.7275093935923</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="X28" t="n">
-        <v>116.7275093935923</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.7275093935923</v>
+        <v>74.30044115726204</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>36.39205281172012</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="C29" t="n">
-        <v>36.39205281172012</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="D29" t="n">
-        <v>36.39205281172012</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="E29" t="n">
-        <v>36.39205281172012</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="F29" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="G29" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="H29" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I29" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J29" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="K29" t="n">
-        <v>8.579347327526861</v>
+        <v>8.579347327526902</v>
       </c>
       <c r="L29" t="n">
         <v>30.44332621730855</v>
       </c>
       <c r="M29" t="n">
-        <v>67.59733763477408</v>
+        <v>67.59733763477414</v>
       </c>
       <c r="N29" t="n">
-        <v>104.7513490522396</v>
+        <v>104.7513490522397</v>
       </c>
       <c r="O29" t="n">
-        <v>136.7661938505103</v>
+        <v>136.7661938505105</v>
       </c>
       <c r="P29" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R29" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S29" t="n">
-        <v>112.2088295028037</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="T29" t="n">
-        <v>112.2088295028037</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="U29" t="n">
-        <v>112.2088295028037</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="V29" t="n">
-        <v>74.30044115726193</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="W29" t="n">
-        <v>36.39205281172012</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="X29" t="n">
-        <v>36.39205281172012</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="Y29" t="n">
-        <v>36.39205281172012</v>
+        <v>40.91073270250879</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.002344356966911</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="C30" t="n">
-        <v>3.002344356966911</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="D30" t="n">
-        <v>3.002344356966911</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="E30" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="F30" t="n">
-        <v>3.002344356966911</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="G30" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="H30" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I30" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J30" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="K30" t="n">
-        <v>3.002344356966911</v>
+        <v>11.45991954906474</v>
       </c>
       <c r="L30" t="n">
-        <v>33.13522710018535</v>
+        <v>39.08915624175965</v>
       </c>
       <c r="M30" t="n">
-        <v>70.28923851765087</v>
+        <v>76.24316765922524</v>
       </c>
       <c r="N30" t="n">
-        <v>91.75600249516226</v>
+        <v>113.3971790766908</v>
       </c>
       <c r="O30" t="n">
-        <v>128.4760412668172</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="P30" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R30" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S30" t="n">
-        <v>150.1172178483455</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="T30" t="n">
-        <v>150.1172178483455</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="U30" t="n">
-        <v>116.7275093935923</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="V30" t="n">
-        <v>78.81912104805053</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="W30" t="n">
-        <v>40.91073270250872</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="X30" t="n">
-        <v>3.002344356966911</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.002344356966911</v>
+        <v>112.2088295028039</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.39205281172012</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="C31" t="n">
-        <v>3.002344356966911</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="D31" t="n">
-        <v>3.002344356966911</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="E31" t="n">
-        <v>3.002344356966911</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="F31" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="G31" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="H31" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I31" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J31" t="n">
-        <v>3.002344356966911</v>
+        <v>40.1563557744325</v>
       </c>
       <c r="K31" t="n">
-        <v>3.002344356966911</v>
+        <v>40.1563557744325</v>
       </c>
       <c r="L31" t="n">
-        <v>3.002344356966911</v>
+        <v>75.80919501341464</v>
       </c>
       <c r="M31" t="n">
-        <v>40.15635577443243</v>
+        <v>112.9632064308802</v>
       </c>
       <c r="N31" t="n">
-        <v>77.31036719189797</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="O31" t="n">
-        <v>114.4643786093635</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="P31" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R31" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S31" t="n">
-        <v>150.1172178483455</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="T31" t="n">
-        <v>112.2088295028037</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="U31" t="n">
-        <v>112.2088295028037</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="V31" t="n">
-        <v>74.30044115726193</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="W31" t="n">
-        <v>36.39205281172012</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="X31" t="n">
-        <v>36.39205281172012</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.39205281172012</v>
+        <v>40.91073270250879</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.81912104805053</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="C32" t="n">
-        <v>40.91073270250872</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="D32" t="n">
-        <v>3.002344356966911</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="E32" t="n">
-        <v>3.002344356966911</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="F32" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="G32" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="H32" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I32" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J32" t="n">
-        <v>3.002344356966994</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="K32" t="n">
-        <v>8.579347327526943</v>
+        <v>8.579347327526907</v>
       </c>
       <c r="L32" t="n">
-        <v>30.44332621730855</v>
+        <v>30.44332621730857</v>
       </c>
       <c r="M32" t="n">
-        <v>67.59733763477408</v>
+        <v>67.59733763477416</v>
       </c>
       <c r="N32" t="n">
-        <v>104.7513490522396</v>
+        <v>104.7513490522397</v>
       </c>
       <c r="O32" t="n">
-        <v>136.7661938505103</v>
+        <v>136.7661938505105</v>
       </c>
       <c r="P32" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R32" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S32" t="n">
-        <v>150.1172178483455</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="T32" t="n">
-        <v>150.1172178483455</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="U32" t="n">
-        <v>150.1172178483455</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="V32" t="n">
-        <v>150.1172178483455</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="W32" t="n">
-        <v>150.1172178483455</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="X32" t="n">
-        <v>150.1172178483455</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="Y32" t="n">
-        <v>116.7275093935923</v>
+        <v>40.91073270250879</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>74.30044115726193</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="C33" t="n">
-        <v>40.91073270250872</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="D33" t="n">
-        <v>3.002344356966911</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="E33" t="n">
-        <v>3.002344356966911</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="F33" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="G33" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="H33" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I33" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J33" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="K33" t="n">
-        <v>11.4599195490647</v>
+        <v>11.45991954906474</v>
       </c>
       <c r="L33" t="n">
-        <v>41.59280229228314</v>
+        <v>41.59280229228322</v>
       </c>
       <c r="M33" t="n">
-        <v>78.74681370974866</v>
+        <v>54.60199107769687</v>
       </c>
       <c r="N33" t="n">
-        <v>115.9008251272142</v>
+        <v>91.75600249516245</v>
       </c>
       <c r="O33" t="n">
-        <v>128.4760412668172</v>
+        <v>128.4760412668174</v>
       </c>
       <c r="P33" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q33" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R33" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S33" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="T33" t="n">
-        <v>150.1172178483455</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="U33" t="n">
-        <v>150.1172178483455</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="V33" t="n">
-        <v>150.1172178483455</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="W33" t="n">
-        <v>112.2088295028037</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="X33" t="n">
-        <v>74.30044115726193</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="Y33" t="n">
-        <v>74.30044115726193</v>
+        <v>40.91073270250879</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.002344356966911</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="C34" t="n">
-        <v>3.002344356966911</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="D34" t="n">
-        <v>3.002344356966911</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="E34" t="n">
-        <v>3.002344356966911</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="F34" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="G34" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="H34" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I34" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J34" t="n">
-        <v>3.002344356966911</v>
+        <v>40.1563557744325</v>
       </c>
       <c r="K34" t="n">
-        <v>3.002344356966911</v>
+        <v>77.31036719189808</v>
       </c>
       <c r="L34" t="n">
-        <v>3.002344356966911</v>
+        <v>114.4643786093637</v>
       </c>
       <c r="M34" t="n">
-        <v>40.15635577443243</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="N34" t="n">
-        <v>77.31036719189797</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="O34" t="n">
-        <v>114.4643786093635</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="P34" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R34" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S34" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="T34" t="n">
-        <v>112.2088295028037</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="U34" t="n">
-        <v>74.30044115726193</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="V34" t="n">
-        <v>74.30044115726193</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="W34" t="n">
-        <v>74.30044115726193</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="X34" t="n">
-        <v>74.30044115726193</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="Y34" t="n">
-        <v>40.91073270250872</v>
+        <v>74.30044115726204</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.39205281172009</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="C35" t="n">
-        <v>36.39205281172009</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="D35" t="n">
-        <v>36.39205281172009</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="E35" t="n">
-        <v>36.39205281172009</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="F35" t="n">
-        <v>36.39205281172009</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="G35" t="n">
-        <v>3.002344356966909</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="H35" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I35" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J35" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="K35" t="n">
-        <v>8.579347327526857</v>
+        <v>8.579347327526875</v>
       </c>
       <c r="L35" t="n">
-        <v>30.4433262173085</v>
+        <v>30.4433262173086</v>
       </c>
       <c r="M35" t="n">
-        <v>67.59733763477399</v>
+        <v>67.59733763477416</v>
       </c>
       <c r="N35" t="n">
-        <v>104.7513490522395</v>
+        <v>104.7513490522397</v>
       </c>
       <c r="O35" t="n">
-        <v>136.7661938505102</v>
+        <v>136.7661938505106</v>
       </c>
       <c r="P35" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R35" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S35" t="n">
-        <v>150.1172178483454</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="T35" t="n">
-        <v>150.1172178483454</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="U35" t="n">
-        <v>150.1172178483454</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="V35" t="n">
-        <v>150.1172178483454</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="W35" t="n">
-        <v>112.2088295028037</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="X35" t="n">
-        <v>74.30044115726187</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="Y35" t="n">
-        <v>36.39205281172009</v>
+        <v>40.91073270250879</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>74.30044115726187</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="C36" t="n">
-        <v>74.30044115726187</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="D36" t="n">
-        <v>36.39205281172009</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="E36" t="n">
-        <v>36.39205281172009</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="F36" t="n">
-        <v>3.002344356966909</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="G36" t="n">
-        <v>3.002344356966909</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="H36" t="n">
-        <v>3.002344356966909</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="I36" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J36" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="K36" t="n">
-        <v>3.002344356966909</v>
+        <v>11.45991954906474</v>
       </c>
       <c r="L36" t="n">
-        <v>33.13522710018535</v>
+        <v>41.59280229228322</v>
       </c>
       <c r="M36" t="n">
-        <v>70.28923851765084</v>
+        <v>76.24316765922525</v>
       </c>
       <c r="N36" t="n">
-        <v>91.75600249516215</v>
+        <v>113.3971790766908</v>
       </c>
       <c r="O36" t="n">
-        <v>128.4760412668171</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="P36" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q36" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R36" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S36" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="T36" t="n">
-        <v>150.1172178483454</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="U36" t="n">
-        <v>112.2088295028037</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="V36" t="n">
-        <v>74.30044115726187</v>
+        <v>36.39205281172017</v>
       </c>
       <c r="W36" t="n">
-        <v>74.30044115726187</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="X36" t="n">
-        <v>74.30044115726187</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="Y36" t="n">
-        <v>74.30044115726187</v>
+        <v>9.887802516019919</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.91073270250869</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="C37" t="n">
-        <v>40.91073270250869</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="D37" t="n">
-        <v>40.91073270250869</v>
+        <v>78.81912104805066</v>
       </c>
       <c r="E37" t="n">
-        <v>40.91073270250869</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="F37" t="n">
-        <v>40.91073270250869</v>
+        <v>40.91073270250879</v>
       </c>
       <c r="G37" t="n">
-        <v>40.91073270250869</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="H37" t="n">
-        <v>40.91073270250869</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="I37" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966916</v>
       </c>
       <c r="J37" t="n">
-        <v>3.002344356966909</v>
+        <v>40.1563557744325</v>
       </c>
       <c r="K37" t="n">
-        <v>3.002344356966909</v>
+        <v>77.31036719189808</v>
       </c>
       <c r="L37" t="n">
-        <v>40.15635577443241</v>
+        <v>77.31036719189808</v>
       </c>
       <c r="M37" t="n">
-        <v>77.31036719189791</v>
+        <v>77.31036719189808</v>
       </c>
       <c r="N37" t="n">
-        <v>114.4643786093634</v>
+        <v>112.9632064308802</v>
       </c>
       <c r="O37" t="n">
-        <v>150.1172178483454</v>
+        <v>112.9632064308802</v>
       </c>
       <c r="P37" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q37" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R37" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S37" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="T37" t="n">
-        <v>116.7275093935923</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="U37" t="n">
-        <v>78.81912104805048</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="V37" t="n">
-        <v>78.81912104805048</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="W37" t="n">
-        <v>78.81912104805048</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="X37" t="n">
-        <v>78.81912104805048</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Y37" t="n">
-        <v>78.81912104805048</v>
+        <v>150.1172178483458</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>40.91073270250869</v>
+        <v>36.39205281172018</v>
       </c>
       <c r="C38" t="n">
-        <v>3.002344356966909</v>
+        <v>36.39205281172018</v>
       </c>
       <c r="D38" t="n">
-        <v>3.002344356966909</v>
+        <v>36.39205281172018</v>
       </c>
       <c r="E38" t="n">
-        <v>3.002344356966909</v>
+        <v>36.39205281172018</v>
       </c>
       <c r="F38" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="G38" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H38" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I38" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J38" t="n">
-        <v>3.002344356966909</v>
+        <v>3.00234435696693</v>
       </c>
       <c r="K38" t="n">
-        <v>8.579347327526897</v>
+        <v>8.579347327526921</v>
       </c>
       <c r="L38" t="n">
-        <v>30.4433262173085</v>
+        <v>30.44332621730859</v>
       </c>
       <c r="M38" t="n">
-        <v>67.59733763477398</v>
+        <v>67.59733763477416</v>
       </c>
       <c r="N38" t="n">
-        <v>104.7513490522395</v>
+        <v>104.7513490522397</v>
       </c>
       <c r="O38" t="n">
-        <v>136.7661938505102</v>
+        <v>136.7661938505105</v>
       </c>
       <c r="P38" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R38" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S38" t="n">
-        <v>150.1172178483454</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="T38" t="n">
-        <v>150.1172178483454</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="U38" t="n">
-        <v>150.1172178483454</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="V38" t="n">
-        <v>150.1172178483454</v>
+        <v>36.39205281172018</v>
       </c>
       <c r="W38" t="n">
-        <v>116.7275093935923</v>
+        <v>36.39205281172018</v>
       </c>
       <c r="X38" t="n">
-        <v>116.7275093935923</v>
+        <v>36.39205281172018</v>
       </c>
       <c r="Y38" t="n">
-        <v>78.81912104805048</v>
+        <v>36.39205281172018</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>85.70457920710348</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="C39" t="n">
-        <v>85.70457920710348</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="D39" t="n">
-        <v>85.70457920710348</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="E39" t="n">
-        <v>85.70457920710348</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="F39" t="n">
-        <v>85.70457920710348</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="G39" t="n">
-        <v>47.7961908615617</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="H39" t="n">
-        <v>9.887802516019917</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="I39" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J39" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K39" t="n">
-        <v>11.45991954906469</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="L39" t="n">
-        <v>41.59280229228313</v>
+        <v>33.1352271001854</v>
       </c>
       <c r="M39" t="n">
-        <v>54.60199107769665</v>
+        <v>54.60199107769684</v>
       </c>
       <c r="N39" t="n">
-        <v>91.75600249516215</v>
+        <v>91.75600249516242</v>
       </c>
       <c r="O39" t="n">
-        <v>128.4760412668171</v>
+        <v>128.4760412668174</v>
       </c>
       <c r="P39" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q39" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R39" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S39" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="T39" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="U39" t="n">
-        <v>112.2088295028037</v>
+        <v>123.6129675526455</v>
       </c>
       <c r="V39" t="n">
-        <v>85.70457920710348</v>
+        <v>85.70457920710365</v>
       </c>
       <c r="W39" t="n">
-        <v>85.70457920710348</v>
+        <v>47.79619086156178</v>
       </c>
       <c r="X39" t="n">
-        <v>85.70457920710348</v>
+        <v>9.887802516019919</v>
       </c>
       <c r="Y39" t="n">
-        <v>85.70457920710348</v>
+        <v>9.887802516019919</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36.39205281172009</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="C40" t="n">
-        <v>3.002344356966909</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="D40" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="E40" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="F40" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="G40" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H40" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I40" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J40" t="n">
-        <v>3.002344356966909</v>
+        <v>40.15635577443249</v>
       </c>
       <c r="K40" t="n">
-        <v>3.002344356966909</v>
+        <v>77.31036719189807</v>
       </c>
       <c r="L40" t="n">
-        <v>40.15635577443241</v>
+        <v>112.9632064308802</v>
       </c>
       <c r="M40" t="n">
-        <v>77.31036719189791</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="N40" t="n">
-        <v>112.9632064308799</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="O40" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="P40" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q40" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R40" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S40" t="n">
-        <v>150.1172178483454</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="T40" t="n">
-        <v>112.2088295028037</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="U40" t="n">
-        <v>74.30044115726187</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="V40" t="n">
-        <v>74.30044115726187</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="W40" t="n">
-        <v>74.30044115726187</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="X40" t="n">
-        <v>74.30044115726187</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="Y40" t="n">
-        <v>74.30044115726187</v>
+        <v>40.91073270250878</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.81912104805048</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="C41" t="n">
-        <v>78.81912104805048</v>
+        <v>116.7275093935926</v>
       </c>
       <c r="D41" t="n">
-        <v>78.81912104805048</v>
+        <v>78.81912104805068</v>
       </c>
       <c r="E41" t="n">
-        <v>78.81912104805048</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="F41" t="n">
-        <v>40.91073270250869</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="G41" t="n">
-        <v>40.91073270250869</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H41" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I41" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J41" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K41" t="n">
-        <v>8.579347327526854</v>
+        <v>8.579347327526916</v>
       </c>
       <c r="L41" t="n">
-        <v>30.44332621730846</v>
+        <v>30.44332621730858</v>
       </c>
       <c r="M41" t="n">
-        <v>67.59733763477395</v>
+        <v>67.59733763477415</v>
       </c>
       <c r="N41" t="n">
-        <v>104.7513490522394</v>
+        <v>104.7513490522398</v>
       </c>
       <c r="O41" t="n">
-        <v>136.7661938505102</v>
+        <v>136.7661938505106</v>
       </c>
       <c r="P41" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R41" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S41" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="T41" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="U41" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="V41" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="W41" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="X41" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483458</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.002344356966909</v>
+        <v>112.208829502804</v>
       </c>
       <c r="C42" t="n">
-        <v>3.002344356966909</v>
+        <v>112.208829502804</v>
       </c>
       <c r="D42" t="n">
-        <v>3.002344356966909</v>
+        <v>112.208829502804</v>
       </c>
       <c r="E42" t="n">
-        <v>3.002344356966909</v>
+        <v>78.81912104805068</v>
       </c>
       <c r="F42" t="n">
-        <v>3.002344356966909</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="G42" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H42" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I42" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J42" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K42" t="n">
-        <v>3.002344356966909</v>
+        <v>11.45991954906474</v>
       </c>
       <c r="L42" t="n">
-        <v>33.13522710018535</v>
+        <v>41.59280229228322</v>
       </c>
       <c r="M42" t="n">
-        <v>70.28923851765084</v>
+        <v>78.74681370974881</v>
       </c>
       <c r="N42" t="n">
-        <v>91.75600249516215</v>
+        <v>91.75600249516248</v>
       </c>
       <c r="O42" t="n">
-        <v>128.4760412668171</v>
+        <v>128.4760412668174</v>
       </c>
       <c r="P42" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q42" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R42" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S42" t="n">
-        <v>150.1172178483454</v>
+        <v>112.208829502804</v>
       </c>
       <c r="T42" t="n">
-        <v>150.1172178483454</v>
+        <v>112.208829502804</v>
       </c>
       <c r="U42" t="n">
-        <v>112.2088295028037</v>
+        <v>112.208829502804</v>
       </c>
       <c r="V42" t="n">
-        <v>74.30044115726187</v>
+        <v>112.208829502804</v>
       </c>
       <c r="W42" t="n">
-        <v>36.39205281172009</v>
+        <v>112.208829502804</v>
       </c>
       <c r="X42" t="n">
-        <v>3.002344356966909</v>
+        <v>112.208829502804</v>
       </c>
       <c r="Y42" t="n">
-        <v>3.002344356966909</v>
+        <v>112.208829502804</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.002344356966909</v>
+        <v>112.208829502804</v>
       </c>
       <c r="C43" t="n">
-        <v>3.002344356966909</v>
+        <v>112.208829502804</v>
       </c>
       <c r="D43" t="n">
-        <v>3.002344356966909</v>
+        <v>78.81912104805068</v>
       </c>
       <c r="E43" t="n">
-        <v>3.002344356966909</v>
+        <v>78.81912104805068</v>
       </c>
       <c r="F43" t="n">
-        <v>3.002344356966909</v>
+        <v>78.81912104805068</v>
       </c>
       <c r="G43" t="n">
-        <v>3.002344356966909</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="H43" t="n">
-        <v>3.002344356966909</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="I43" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J43" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K43" t="n">
-        <v>40.15635577443241</v>
+        <v>38.65518359594905</v>
       </c>
       <c r="L43" t="n">
-        <v>40.15635577443241</v>
+        <v>75.80919501341464</v>
       </c>
       <c r="M43" t="n">
-        <v>77.31036719189791</v>
+        <v>112.9632064308802</v>
       </c>
       <c r="N43" t="n">
-        <v>112.9632064308799</v>
+        <v>112.9632064308802</v>
       </c>
       <c r="O43" t="n">
-        <v>112.9632064308799</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="P43" t="n">
-        <v>112.9632064308799</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R43" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S43" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="T43" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="U43" t="n">
-        <v>78.81912104805048</v>
+        <v>112.208829502804</v>
       </c>
       <c r="V43" t="n">
-        <v>40.91073270250869</v>
+        <v>112.208829502804</v>
       </c>
       <c r="W43" t="n">
-        <v>3.002344356966909</v>
+        <v>112.208829502804</v>
       </c>
       <c r="X43" t="n">
-        <v>3.002344356966909</v>
+        <v>112.208829502804</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.002344356966909</v>
+        <v>112.208829502804</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.002344356966907</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="C44" t="n">
-        <v>3.002344356966907</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="D44" t="n">
-        <v>3.002344356966907</v>
+        <v>78.81912104805065</v>
       </c>
       <c r="E44" t="n">
-        <v>3.002344356966907</v>
+        <v>78.81912104805065</v>
       </c>
       <c r="F44" t="n">
-        <v>3.002344356966907</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="G44" t="n">
-        <v>3.002344356966907</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="H44" t="n">
-        <v>3.002344356966907</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="I44" t="n">
-        <v>3.002344356966907</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J44" t="n">
-        <v>3.002344356966907</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K44" t="n">
-        <v>8.579347327526854</v>
+        <v>8.579347327526907</v>
       </c>
       <c r="L44" t="n">
-        <v>30.44332621730846</v>
+        <v>30.44332621730857</v>
       </c>
       <c r="M44" t="n">
-        <v>67.59733763477395</v>
+        <v>67.59733763477415</v>
       </c>
       <c r="N44" t="n">
-        <v>104.7513490522394</v>
+        <v>104.7513490522397</v>
       </c>
       <c r="O44" t="n">
-        <v>136.7661938505102</v>
+        <v>136.7661938505105</v>
       </c>
       <c r="P44" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R44" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S44" t="n">
-        <v>112.2088295028036</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="T44" t="n">
-        <v>74.30044115726184</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="U44" t="n">
-        <v>74.30044115726184</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="V44" t="n">
-        <v>36.39205281172008</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="W44" t="n">
-        <v>3.002344356966907</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="X44" t="n">
-        <v>3.002344356966907</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.002344356966907</v>
+        <v>116.7275093935925</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>40.91073270250867</v>
+        <v>78.81912104805065</v>
       </c>
       <c r="C45" t="n">
-        <v>40.91073270250867</v>
+        <v>78.81912104805065</v>
       </c>
       <c r="D45" t="n">
-        <v>40.91073270250867</v>
+        <v>78.81912104805065</v>
       </c>
       <c r="E45" t="n">
-        <v>40.91073270250867</v>
+        <v>78.81912104805065</v>
       </c>
       <c r="F45" t="n">
-        <v>3.002344356966907</v>
+        <v>78.81912104805065</v>
       </c>
       <c r="G45" t="n">
-        <v>3.002344356966907</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="H45" t="n">
-        <v>3.002344356966907</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I45" t="n">
-        <v>3.002344356966907</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J45" t="n">
-        <v>3.002344356966907</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K45" t="n">
-        <v>3.002344356966907</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="L45" t="n">
-        <v>17.44797966023113</v>
+        <v>33.1352271001854</v>
       </c>
       <c r="M45" t="n">
-        <v>54.60199107769661</v>
+        <v>70.28923851765097</v>
       </c>
       <c r="N45" t="n">
-        <v>91.75600249516209</v>
+        <v>107.4432499351165</v>
       </c>
       <c r="O45" t="n">
-        <v>128.476041266817</v>
+        <v>144.1632887067715</v>
       </c>
       <c r="P45" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R45" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="S45" t="n">
-        <v>112.2088295028036</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="T45" t="n">
-        <v>74.30044115726184</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="U45" t="n">
-        <v>74.30044115726184</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="V45" t="n">
-        <v>74.30044115726184</v>
+        <v>78.81912104805065</v>
       </c>
       <c r="W45" t="n">
-        <v>40.91073270250867</v>
+        <v>78.81912104805065</v>
       </c>
       <c r="X45" t="n">
-        <v>40.91073270250867</v>
+        <v>78.81912104805065</v>
       </c>
       <c r="Y45" t="n">
-        <v>40.91073270250867</v>
+        <v>78.81912104805065</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.91073270250867</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="C46" t="n">
-        <v>40.91073270250867</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="D46" t="n">
-        <v>40.91073270250867</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="E46" t="n">
-        <v>40.91073270250867</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="F46" t="n">
-        <v>40.91073270250867</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="G46" t="n">
-        <v>3.002344356966907</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H46" t="n">
-        <v>3.002344356966907</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I46" t="n">
-        <v>3.002344356966907</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J46" t="n">
-        <v>3.002344356966907</v>
+        <v>40.15635577443249</v>
       </c>
       <c r="K46" t="n">
-        <v>3.002344356966907</v>
+        <v>77.31036719189807</v>
       </c>
       <c r="L46" t="n">
-        <v>40.15635577443239</v>
+        <v>114.4643786093636</v>
       </c>
       <c r="M46" t="n">
-        <v>40.15635577443239</v>
+        <v>114.4643786093636</v>
       </c>
       <c r="N46" t="n">
-        <v>77.31036719189788</v>
+        <v>114.4643786093636</v>
       </c>
       <c r="O46" t="n">
-        <v>77.31036719189788</v>
+        <v>114.4643786093636</v>
       </c>
       <c r="P46" t="n">
-        <v>112.9632064308799</v>
+        <v>114.4643786093636</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483458</v>
       </c>
       <c r="R46" t="n">
-        <v>112.2088295028036</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="S46" t="n">
-        <v>74.30044115726184</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="T46" t="n">
-        <v>74.30044115726184</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="U46" t="n">
-        <v>40.91073270250867</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="V46" t="n">
-        <v>40.91073270250867</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="W46" t="n">
-        <v>40.91073270250867</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="X46" t="n">
-        <v>40.91073270250867</v>
+        <v>40.91073270250878</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.91073270250867</v>
+        <v>40.91073270250878</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8692,7 @@
         <v>26.38060125819129</v>
       </c>
       <c r="K11" t="n">
-        <v>18.7810162654483</v>
+        <v>18.78101626544829</v>
       </c>
       <c r="L11" t="n">
         <v>8.203336102828075</v>
@@ -8710,7 +8710,7 @@
         <v>14.11404580593616</v>
       </c>
       <c r="Q11" t="n">
-        <v>30.30609330503576</v>
+        <v>30.30609330503575</v>
       </c>
       <c r="R11" t="n">
         <v>52.568978994272</v>
@@ -8768,10 +8768,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>23.41031550293733</v>
+        <v>23.41031550293732</v>
       </c>
       <c r="K12" t="n">
-        <v>8.039529638152516</v>
+        <v>8.039529638152509</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>23.42589057308062</v>
       </c>
       <c r="L13" t="n">
-        <v>17.7428847126168</v>
+        <v>17.74288471261679</v>
       </c>
       <c r="M13" t="n">
         <v>17.37445023310241</v>
@@ -9184,7 +9184,7 @@
         <v>0.7330732454824584</v>
       </c>
       <c r="Q17" t="n">
-        <v>28.8213241400141</v>
+        <v>28.82132414001411</v>
       </c>
       <c r="R17" t="n">
         <v>46.72381062751163</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>46.61979795171953</v>
+        <v>46.61979795171954</v>
       </c>
       <c r="K19" t="n">
         <v>18.57647807777823</v>
       </c>
       <c r="L19" t="n">
-        <v>27.21549645726558</v>
+        <v>11.53730631291606</v>
       </c>
       <c r="M19" t="n">
-        <v>26.50972804126263</v>
+        <v>10.83153789691311</v>
       </c>
       <c r="N19" t="n">
-        <v>22.40427363562747</v>
+        <v>23.03773586368199</v>
       </c>
       <c r="O19" t="n">
-        <v>15.1076316605491</v>
+        <v>30.78582180489863</v>
       </c>
       <c r="P19" t="n">
         <v>20.72526791008761</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.08955582939744</v>
+        <v>52.13428374569244</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>18.48294167697898</v>
+        <v>18.48294167697897</v>
       </c>
       <c r="K20" t="n">
-        <v>6.944471810258861</v>
+        <v>6.944471810258847</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.7330732454824727</v>
+        <v>9.29685720908587</v>
       </c>
       <c r="Q20" t="n">
         <v>20.2575401764107</v>
       </c>
       <c r="R20" t="n">
-        <v>55.28759459111505</v>
+        <v>46.72381062751163</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>12.56209233042348</v>
+        <v>12.56209233042347</v>
       </c>
       <c r="R21" t="n">
         <v>37.53539260028506</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.94160780737002</v>
+        <v>30.94160780737001</v>
       </c>
       <c r="K22" t="n">
         <v>18.57647807777823</v>
       </c>
       <c r="L22" t="n">
-        <v>11.53730631291607</v>
+        <v>11.53730631291606</v>
       </c>
       <c r="M22" t="n">
-        <v>25.87626581320811</v>
+        <v>10.83153789691311</v>
       </c>
       <c r="N22" t="n">
-        <v>7.359545719332473</v>
+        <v>23.03773586368199</v>
       </c>
       <c r="O22" t="n">
-        <v>30.78582180489863</v>
+        <v>30.1523595768441</v>
       </c>
       <c r="P22" t="n">
-        <v>36.40345805443714</v>
+        <v>36.40345805443713</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.76774597374696</v>
+        <v>52.76774597374697</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>10.09069110280006</v>
+        <v>10.09069110280003</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.579696329610442</v>
+        <v>9.5796963296104</v>
       </c>
       <c r="R23" t="n">
-        <v>40.51258854612291</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>13.70815661144294</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.808809210202206</v>
+        <v>5.808809210202185</v>
       </c>
       <c r="R24" t="n">
-        <v>34.25063875717579</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.33509747550558</v>
+        <v>27.80579301341918</v>
       </c>
       <c r="K25" t="n">
-        <v>50.95267554916234</v>
+        <v>50.95267554916239</v>
       </c>
       <c r="L25" t="n">
-        <v>42.47240797954509</v>
+        <v>4.943103517458688</v>
       </c>
       <c r="M25" t="n">
-        <v>39.8918445528242</v>
+        <v>3.87887562455947</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5722022158511422</v>
+        <v>36.5851711441159</v>
       </c>
       <c r="O25" t="n">
-        <v>8.838421371704122</v>
+        <v>8.838421371704101</v>
       </c>
       <c r="P25" t="n">
-        <v>15.36087546843636</v>
+        <v>52.89017993052279</v>
       </c>
       <c r="Q25" t="n">
-        <v>33.37552856090304</v>
+        <v>70.90483302298948</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>10.09069110280006</v>
+        <v>10.09069110280002</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.579696329610442</v>
+        <v>9.579696329610385</v>
       </c>
       <c r="R26" t="n">
-        <v>40.51258854612291</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>13.70815661144294</v>
+        <v>13.70815661144291</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.808809210202206</v>
+        <v>5.808809210202178</v>
       </c>
       <c r="R27" t="n">
-        <v>34.25063875717579</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>27.80579301341919</v>
+        <v>65.33509747550562</v>
       </c>
       <c r="K28" t="n">
-        <v>13.42337108707596</v>
+        <v>50.95267554916239</v>
       </c>
       <c r="L28" t="n">
-        <v>4.943103517458709</v>
+        <v>4.943103517458681</v>
       </c>
       <c r="M28" t="n">
-        <v>41.40818008664588</v>
+        <v>41.40818008664591</v>
       </c>
       <c r="N28" t="n">
-        <v>38.10150667793753</v>
+        <v>36.5851711441159</v>
       </c>
       <c r="O28" t="n">
-        <v>46.36772583379052</v>
+        <v>8.838421371704094</v>
       </c>
       <c r="P28" t="n">
-        <v>51.37384439670105</v>
+        <v>15.36087546843633</v>
       </c>
       <c r="Q28" t="n">
-        <v>33.37552856090304</v>
+        <v>33.37552856090301</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>10.09069110280006</v>
+        <v>10.09069110280002</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.579696329610442</v>
+        <v>9.579696329610385</v>
       </c>
       <c r="R29" t="n">
-        <v>40.51258854612291</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>13.70815661144294</v>
+        <v>13.70815661144291</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.808809210202206</v>
+        <v>5.808809210202178</v>
       </c>
       <c r="R30" t="n">
-        <v>34.25063875717579</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>27.80579301341919</v>
+        <v>65.33509747550562</v>
       </c>
       <c r="K31" t="n">
-        <v>13.42337108707596</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L31" t="n">
-        <v>4.943103517458709</v>
+        <v>40.95607244572347</v>
       </c>
       <c r="M31" t="n">
-        <v>41.40818008664588</v>
+        <v>41.40818008664592</v>
       </c>
       <c r="N31" t="n">
-        <v>38.10150667793753</v>
+        <v>38.10150667793755</v>
       </c>
       <c r="O31" t="n">
-        <v>46.36772583379052</v>
+        <v>8.838421371704094</v>
       </c>
       <c r="P31" t="n">
-        <v>51.37384439670105</v>
+        <v>15.36087546843633</v>
       </c>
       <c r="Q31" t="n">
-        <v>33.37552856090304</v>
+        <v>33.37552856090301</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.09069110280006</v>
+        <v>10.09069110280003</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.579696329610442</v>
+        <v>9.5796963296104</v>
       </c>
       <c r="R32" t="n">
-        <v>40.51258854612291</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>13.70815661144294</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>5.808809210202206</v>
+        <v>5.808809210202185</v>
       </c>
       <c r="R33" t="n">
-        <v>34.25063875717579</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>27.80579301341919</v>
+        <v>65.33509747550562</v>
       </c>
       <c r="K34" t="n">
-        <v>13.42337108707596</v>
+        <v>50.95267554916239</v>
       </c>
       <c r="L34" t="n">
-        <v>4.943103517458709</v>
+        <v>42.47240797954514</v>
       </c>
       <c r="M34" t="n">
-        <v>41.40818008664588</v>
+        <v>39.89184455282426</v>
       </c>
       <c r="N34" t="n">
-        <v>38.10150667793753</v>
+        <v>0.5722022158511137</v>
       </c>
       <c r="O34" t="n">
-        <v>46.36772583379052</v>
+        <v>8.838421371704101</v>
       </c>
       <c r="P34" t="n">
-        <v>51.37384439670105</v>
+        <v>15.36087546843634</v>
       </c>
       <c r="Q34" t="n">
-        <v>33.37552856090304</v>
+        <v>33.37552856090302</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>10.09069110280006</v>
+        <v>10.09069110280003</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.579696329610442</v>
+        <v>9.5796963296104</v>
       </c>
       <c r="R35" t="n">
-        <v>40.51258854612291</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>13.70815661144294</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>5.808809210202206</v>
+        <v>5.808809210202185</v>
       </c>
       <c r="R36" t="n">
-        <v>34.25063875717579</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>27.80579301341919</v>
+        <v>65.33509747550562</v>
       </c>
       <c r="K37" t="n">
-        <v>13.42337108707596</v>
+        <v>50.95267554916239</v>
       </c>
       <c r="L37" t="n">
-        <v>42.47240797954507</v>
+        <v>4.943103517458688</v>
       </c>
       <c r="M37" t="n">
-        <v>41.40818008664586</v>
+        <v>3.87887562455947</v>
       </c>
       <c r="N37" t="n">
-        <v>38.1015066779375</v>
+        <v>36.5851711441159</v>
       </c>
       <c r="O37" t="n">
-        <v>44.8513902999688</v>
+        <v>8.838421371704101</v>
       </c>
       <c r="P37" t="n">
-        <v>15.36087546843636</v>
+        <v>52.89017993052279</v>
       </c>
       <c r="Q37" t="n">
-        <v>33.37552856090304</v>
+        <v>33.37552856090302</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>10.09069110280006</v>
+        <v>10.09069110280003</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.579696329610442</v>
+        <v>9.5796963296104</v>
       </c>
       <c r="R38" t="n">
-        <v>40.51258854612291</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>13.70815661144294</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>5.808809210202206</v>
+        <v>5.808809210202185</v>
       </c>
       <c r="R39" t="n">
-        <v>34.25063875717579</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>27.80579301341919</v>
+        <v>65.33509747550562</v>
       </c>
       <c r="K40" t="n">
-        <v>13.42337108707596</v>
+        <v>50.95267554916238</v>
       </c>
       <c r="L40" t="n">
-        <v>42.47240797954507</v>
+        <v>40.95607244572348</v>
       </c>
       <c r="M40" t="n">
-        <v>41.40818008664586</v>
+        <v>41.40818008664591</v>
       </c>
       <c r="N40" t="n">
-        <v>36.58517114411581</v>
+        <v>0.5722022158511137</v>
       </c>
       <c r="O40" t="n">
-        <v>46.36772583379049</v>
+        <v>8.838421371704101</v>
       </c>
       <c r="P40" t="n">
-        <v>15.36087546843636</v>
+        <v>15.36087546843634</v>
       </c>
       <c r="Q40" t="n">
-        <v>33.37552856090304</v>
+        <v>33.37552856090302</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>10.09069110280006</v>
+        <v>10.09069110280003</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.579696329610442</v>
+        <v>9.5796963296104</v>
       </c>
       <c r="R41" t="n">
-        <v>40.51258854612291</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>13.70815661144294</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>5.808809210202206</v>
+        <v>5.808809210202185</v>
       </c>
       <c r="R42" t="n">
-        <v>34.25063875717579</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>27.80579301341919</v>
+        <v>27.80579301341918</v>
       </c>
       <c r="K43" t="n">
-        <v>50.95267554916231</v>
+        <v>49.43634001534072</v>
       </c>
       <c r="L43" t="n">
-        <v>4.943103517458709</v>
+        <v>42.47240797954515</v>
       </c>
       <c r="M43" t="n">
-        <v>41.40818008664586</v>
+        <v>41.40818008664593</v>
       </c>
       <c r="N43" t="n">
-        <v>36.58517114411581</v>
+        <v>0.5722022158511137</v>
       </c>
       <c r="O43" t="n">
-        <v>8.838421371704122</v>
+        <v>46.36772583379055</v>
       </c>
       <c r="P43" t="n">
-        <v>15.36087546843636</v>
+        <v>15.36087546843634</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.90483302298939</v>
+        <v>33.37552856090302</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>10.09069110280006</v>
+        <v>10.09069110280003</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.579696329610442</v>
+        <v>9.5796963296104</v>
       </c>
       <c r="R44" t="n">
-        <v>40.51258854612291</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>13.70815661144294</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>5.808809210202206</v>
+        <v>5.808809210202185</v>
       </c>
       <c r="R45" t="n">
-        <v>34.25063875717579</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27.80579301341919</v>
+        <v>65.33509747550562</v>
       </c>
       <c r="K46" t="n">
-        <v>13.42337108707596</v>
+        <v>50.95267554916238</v>
       </c>
       <c r="L46" t="n">
-        <v>42.47240797954506</v>
+        <v>42.47240797954513</v>
       </c>
       <c r="M46" t="n">
-        <v>3.878875624559498</v>
+        <v>3.87887562455947</v>
       </c>
       <c r="N46" t="n">
-        <v>38.10150667793749</v>
+        <v>0.5722022158511137</v>
       </c>
       <c r="O46" t="n">
-        <v>8.838421371704122</v>
+        <v>8.838421371704101</v>
       </c>
       <c r="P46" t="n">
-        <v>51.37384439670102</v>
+        <v>15.36087546843634</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.90483302298938</v>
+        <v>69.3884974891678</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23734,16 +23734,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>390.345154635513</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>394.5186231839227</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>401.1419177814998</v>
       </c>
       <c r="G17" t="n">
         <v>403.9948574388665</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.2042619908454</v>
+        <v>105.3949121117024</v>
       </c>
       <c r="T17" t="n">
-        <v>217.1559246089122</v>
+        <v>201.4777344645626</v>
       </c>
       <c r="U17" t="n">
         <v>254.4381953169066</v>
@@ -23794,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>366.1133479770401</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>380.9587737083875</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>381.2491161770413</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23816,13 +23816,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>100.049996058452</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>103.6096977032458</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>102.6990462794093</v>
       </c>
       <c r="G18" t="n">
         <v>105.5744941327544</v>
@@ -23831,7 +23831,7 @@
         <v>66.70083832515573</v>
       </c>
       <c r="I18" t="n">
-        <v>8.638115139231887</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>86.6792103492577</v>
+        <v>100.4885602284008</v>
       </c>
       <c r="T18" t="n">
         <v>156.3549613391593</v>
@@ -23873,13 +23873,13 @@
         <v>195.896221592547</v>
       </c>
       <c r="W18" t="n">
-        <v>195.422646436685</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>142.1297498954588</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -23943,19 +23943,19 @@
         <v>179.4767667166956</v>
       </c>
       <c r="T19" t="n">
-        <v>220.2366632886993</v>
+        <v>222.1055035539057</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9543566406135</v>
+        <v>264.276166496264</v>
       </c>
       <c r="V19" t="n">
         <v>255.4686974655237</v>
       </c>
       <c r="W19" t="n">
-        <v>260.6007777018648</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>222.1510736397704</v>
+        <v>220.2822333745639</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.440777723495</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>390.345154635513</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>386.609940728727</v>
+        <v>384.7411004635205</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -23989,7 +23989,7 @@
         <v>301.182091927944</v>
       </c>
       <c r="I20" t="n">
-        <v>60.5777851568281</v>
+        <v>60.57778515682809</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>119.2042619908454</v>
       </c>
       <c r="T20" t="n">
-        <v>201.4777344645626</v>
+        <v>203.3465747297691</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4381953169066</v>
+        <v>238.7600051725571</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24037,7 +24037,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>381.2491161770413</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.5744941327544</v>
+        <v>89.8963039884049</v>
       </c>
       <c r="H21" t="n">
         <v>66.70083832515573</v>
       </c>
       <c r="I21" t="n">
-        <v>8.638115139231889</v>
+        <v>8.638115139231887</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,19 +24098,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>100.4885602284008</v>
+        <v>84.81037008405123</v>
       </c>
       <c r="T21" t="n">
-        <v>140.6767711948098</v>
+        <v>156.3549613391593</v>
       </c>
       <c r="U21" t="n">
         <v>179.6763680413106</v>
       </c>
       <c r="V21" t="n">
-        <v>195.896221592547</v>
+        <v>197.7650618577534</v>
       </c>
       <c r="W21" t="n">
-        <v>197.2914867018915</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
@@ -24129,7 +24129,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>155.5730888347576</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>71.38782625352545</v>
+        <v>57.57847637438238</v>
       </c>
       <c r="S22" t="n">
         <v>163.798576572346</v>
       </c>
       <c r="T22" t="n">
-        <v>220.2366632886993</v>
+        <v>235.9148534330488</v>
       </c>
       <c r="U22" t="n">
         <v>279.9543566406135</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>255.4686974655237</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>260.6007777018648</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>206.8101514807734</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24211,13 +24211,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>362.8899861457836</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>383.7642965556436</v>
       </c>
       <c r="G23" t="n">
         <v>403.8959782144399</v>
@@ -24226,7 +24226,7 @@
         <v>300.1694450707848</v>
       </c>
       <c r="I23" t="n">
-        <v>56.76574385712079</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>116.9510516642238</v>
       </c>
       <c r="T23" t="n">
-        <v>216.7230808039846</v>
+        <v>179.1937763418982</v>
       </c>
       <c r="U23" t="n">
-        <v>216.9009805168661</v>
+        <v>254.4302849789525</v>
       </c>
       <c r="V23" t="n">
         <v>308.8098746547977</v>
       </c>
       <c r="W23" t="n">
-        <v>342.3933933940967</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>363.5811524825313</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24290,22 +24290,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>78.19888174071502</v>
       </c>
       <c r="E24" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>70.340976557234</v>
       </c>
       <c r="G24" t="n">
-        <v>105.5215890835718</v>
+        <v>67.99228462148537</v>
       </c>
       <c r="H24" t="n">
         <v>66.18988692910271</v>
       </c>
       <c r="I24" t="n">
-        <v>6.816603577462478</v>
+        <v>6.816603577462473</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,19 +24335,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>61.97656768171648</v>
+        <v>66.45006077359713</v>
       </c>
       <c r="T24" t="n">
-        <v>118.6124124025167</v>
+        <v>156.1417168646031</v>
       </c>
       <c r="U24" t="n">
         <v>195.3510775903192</v>
       </c>
       <c r="V24" t="n">
-        <v>174.0451072748101</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>178.0450252108288</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2934048680175</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24378,7 +24378,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.2436954710736</v>
+        <v>132.1878841008678</v>
       </c>
       <c r="H25" t="n">
         <v>145.1401126844127</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>69.39351739781233</v>
+        <v>31.86421293572588</v>
       </c>
       <c r="S25" t="n">
-        <v>178.7038006680902</v>
+        <v>141.1744962060037</v>
       </c>
       <c r="T25" t="n">
-        <v>202.6695303034042</v>
+        <v>198.1960372115234</v>
       </c>
       <c r="U25" t="n">
-        <v>242.4226328794704</v>
+        <v>279.9519373415568</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24432,7 +24432,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.9590371630366</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>379.2908034637629</v>
       </c>
       <c r="G26" t="n">
         <v>403.8959782144399</v>
       </c>
       <c r="H26" t="n">
-        <v>300.1694450707848</v>
+        <v>262.6401406086984</v>
       </c>
       <c r="I26" t="n">
-        <v>56.76574385712079</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.42174720213742</v>
+        <v>116.9510516642238</v>
       </c>
       <c r="T26" t="n">
         <v>216.7230808039846</v>
       </c>
       <c r="U26" t="n">
-        <v>216.9009805168661</v>
+        <v>221.3744736087468</v>
       </c>
       <c r="V26" t="n">
-        <v>313.2833677466784</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>342.3933933940967</v>
@@ -24524,25 +24524,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6551205385437</v>
+        <v>99.59930916833802</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>78.19888174071502</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>74.81446964911478</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
         <v>105.5215890835718</v>
       </c>
       <c r="H27" t="n">
-        <v>66.18988692910271</v>
+        <v>66.1898869291027</v>
       </c>
       <c r="I27" t="n">
-        <v>6.816603577462478</v>
+        <v>6.81660357746247</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>99.50587214380288</v>
+        <v>99.50587214380286</v>
       </c>
       <c r="T27" t="n">
-        <v>156.1417168646031</v>
+        <v>118.6124124025166</v>
       </c>
       <c r="U27" t="n">
-        <v>157.8217731282328</v>
+        <v>157.8217731282327</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -24587,10 +24587,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>137.0334175804097</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>120.2786355777219</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -24606,7 +24606,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>120.3703937682326</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24615,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>127.7143910089872</v>
+        <v>132.1878841008678</v>
       </c>
       <c r="H28" t="n">
-        <v>107.6108082223263</v>
+        <v>145.1401126844127</v>
       </c>
       <c r="I28" t="n">
-        <v>67.60322534510443</v>
+        <v>105.1325298071908</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>69.39351739781233</v>
       </c>
       <c r="S28" t="n">
-        <v>178.7038006680902</v>
+        <v>141.1744962060037</v>
       </c>
       <c r="T28" t="n">
-        <v>235.7253416736098</v>
+        <v>198.1960372115234</v>
       </c>
       <c r="U28" t="n">
-        <v>246.8961259713511</v>
+        <v>279.9519373415568</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24691,7 +24691,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>383.7642965556436</v>
+        <v>379.2908034637629</v>
       </c>
       <c r="G29" t="n">
         <v>403.8959782144399</v>
@@ -24700,7 +24700,7 @@
         <v>300.1694450707848</v>
       </c>
       <c r="I29" t="n">
-        <v>56.76574385712079</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.42174720213742</v>
+        <v>79.42174720213737</v>
       </c>
       <c r="T29" t="n">
-        <v>216.7230808039846</v>
+        <v>179.1937763418982</v>
       </c>
       <c r="U29" t="n">
         <v>254.4302849789525</v>
       </c>
       <c r="V29" t="n">
-        <v>308.8098746547977</v>
+        <v>313.2833677466784</v>
       </c>
       <c r="W29" t="n">
-        <v>342.3933933940967</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -24767,19 +24767,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>86.23207647738957</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>70.340976557234</v>
       </c>
       <c r="G30" t="n">
-        <v>105.5215890835718</v>
+        <v>67.99228462148537</v>
       </c>
       <c r="H30" t="n">
-        <v>66.18988692910271</v>
+        <v>66.1898869291027</v>
       </c>
       <c r="I30" t="n">
-        <v>6.816603577462478</v>
+        <v>6.81660357746247</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>99.50587214380288</v>
+        <v>61.97656768171641</v>
       </c>
       <c r="T30" t="n">
         <v>156.1417168646031</v>
       </c>
       <c r="U30" t="n">
-        <v>162.2952662201135</v>
+        <v>195.3510775903192</v>
       </c>
       <c r="V30" t="n">
-        <v>174.0451072748101</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>173.5715321189481</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>137.0334175804097</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -24840,7 +24840,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>136.326627343695</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24849,7 +24849,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>125.4555101684282</v>
       </c>
       <c r="G31" t="n">
         <v>165.2436954710736</v>
@@ -24888,19 +24888,19 @@
         <v>69.39351739781233</v>
       </c>
       <c r="S31" t="n">
-        <v>178.7038006680902</v>
+        <v>145.6479892978845</v>
       </c>
       <c r="T31" t="n">
         <v>198.1960372115234</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9519373415568</v>
+        <v>242.4226328794703</v>
       </c>
       <c r="V31" t="n">
-        <v>233.6175831477869</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>238.749663384128</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>368.5896634057582</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>368.4940403177762</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>362.8899861457837</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>379.2908034637629</v>
       </c>
       <c r="G32" t="n">
         <v>403.8959782144399</v>
@@ -24937,7 +24937,7 @@
         <v>300.1694450707848</v>
       </c>
       <c r="I32" t="n">
-        <v>56.76574385712079</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>116.9510516642238</v>
+        <v>79.42174720213737</v>
       </c>
       <c r="T32" t="n">
-        <v>216.7230808039846</v>
+        <v>179.1937763418982</v>
       </c>
       <c r="U32" t="n">
         <v>254.4302849789525</v>
@@ -24979,13 +24979,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>346.8668864859774</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>363.8714949511851</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -24998,16 +24998,16 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>99.59930916833807</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>78.19888174071509</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>70.340976557234</v>
       </c>
       <c r="G33" t="n">
         <v>105.5215890835718</v>
@@ -25016,7 +25016,7 @@
         <v>66.18988692910271</v>
       </c>
       <c r="I33" t="n">
-        <v>6.816603577462478</v>
+        <v>6.816603577462473</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,22 +25046,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>99.50587214380288</v>
+        <v>99.50587214380286</v>
       </c>
       <c r="T33" t="n">
-        <v>156.1417168646031</v>
+        <v>118.6124124025166</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3510775903192</v>
+        <v>162.2952662201135</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>174.0451072748101</v>
       </c>
       <c r="W33" t="n">
-        <v>173.5715321189481</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>137.0334175804097</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2934048680175</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>120.3703937682326</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>129.9290032603089</v>
       </c>
       <c r="G34" t="n">
         <v>165.2436954710736</v>
@@ -25131,7 +25131,7 @@
         <v>198.1960372115234</v>
       </c>
       <c r="U34" t="n">
-        <v>242.4226328794704</v>
+        <v>242.4226328794703</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25143,7 +25143,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>189.4325302549173</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>370.8401668442342</v>
+        <v>403.8959782144399</v>
       </c>
       <c r="H35" t="n">
-        <v>300.1694450707848</v>
+        <v>262.6401406086984</v>
       </c>
       <c r="I35" t="n">
-        <v>56.76574385712079</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>116.9510516642238</v>
+        <v>83.89524029401807</v>
       </c>
       <c r="T35" t="n">
-        <v>216.7230808039846</v>
+        <v>179.1937763418982</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4302849789525</v>
+        <v>216.900980516866</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>342.3933933940967</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>359.1076593906506</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>359.3980018593044</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25238,13 +25238,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>78.19888174071512</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>74.81446964911481</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
         <v>105.5215890835718</v>
@@ -25253,7 +25253,7 @@
         <v>66.18988692910271</v>
       </c>
       <c r="I36" t="n">
-        <v>6.816603577462478</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>99.50587214380288</v>
+        <v>99.50587214380286</v>
       </c>
       <c r="T36" t="n">
-        <v>156.1417168646031</v>
+        <v>118.6124124025166</v>
       </c>
       <c r="U36" t="n">
-        <v>157.8217731282328</v>
+        <v>157.8217731282327</v>
       </c>
       <c r="V36" t="n">
-        <v>174.0451072748102</v>
+        <v>174.0451072748101</v>
       </c>
       <c r="W36" t="n">
-        <v>211.1008365810345</v>
+        <v>184.8616287882913</v>
       </c>
       <c r="X36" t="n">
         <v>174.5627220424961</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2934048680176</v>
+        <v>148.2934048680175</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>136.3266273436949</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>121.7724025182773</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.2436954710736</v>
+        <v>127.7143910089871</v>
       </c>
       <c r="H37" t="n">
         <v>145.1401126844127</v>
       </c>
       <c r="I37" t="n">
-        <v>67.60322534510446</v>
+        <v>105.1325298071908</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>178.7038006680902</v>
       </c>
       <c r="T37" t="n">
-        <v>202.6695303034042</v>
+        <v>235.7253416736098</v>
       </c>
       <c r="U37" t="n">
-        <v>242.4226328794704</v>
+        <v>279.9519373415568</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>368.5896634057582</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>368.4940403177762</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25402,7 +25402,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>383.7642965556436</v>
       </c>
       <c r="G38" t="n">
         <v>403.8959782144399</v>
@@ -25411,7 +25411,7 @@
         <v>300.1694450707848</v>
       </c>
       <c r="I38" t="n">
-        <v>56.76574385712079</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>116.9510516642238</v>
+        <v>79.42174720213737</v>
       </c>
       <c r="T38" t="n">
-        <v>216.7230808039846</v>
+        <v>179.1937763418982</v>
       </c>
       <c r="U38" t="n">
         <v>254.4302849789525</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>308.8098746547977</v>
       </c>
       <c r="W38" t="n">
-        <v>346.8668864859775</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>359.3980018593044</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25484,10 +25484,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>67.99228462148547</v>
+        <v>105.5215890835718</v>
       </c>
       <c r="H39" t="n">
-        <v>28.66058246701635</v>
+        <v>66.18988692910271</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>99.50587214380288</v>
+        <v>99.50587214380286</v>
       </c>
       <c r="T39" t="n">
-        <v>118.6124124025168</v>
+        <v>156.1417168646031</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3510775903192</v>
+        <v>169.1118697975759</v>
       </c>
       <c r="V39" t="n">
-        <v>185.3352039441533</v>
+        <v>174.0451072748101</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>173.5715321189481</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>137.0334175804097</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2934048680176</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>136.326627343695</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>120.3703937682326</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25599,13 +25599,13 @@
         <v>69.39351739781233</v>
       </c>
       <c r="S40" t="n">
-        <v>178.7038006680902</v>
+        <v>141.1744962060038</v>
       </c>
       <c r="T40" t="n">
-        <v>198.1960372115235</v>
+        <v>198.1960372115234</v>
       </c>
       <c r="U40" t="n">
-        <v>242.4226328794704</v>
+        <v>246.8961259713511</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>373.0631564976389</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>372.9675334096568</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>362.8899861457836</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>372.6675088661858</v>
       </c>
       <c r="F41" t="n">
-        <v>379.2908034637629</v>
+        <v>379.2908034637628</v>
       </c>
       <c r="G41" t="n">
         <v>403.8959782144399</v>
       </c>
       <c r="H41" t="n">
-        <v>262.6401406086985</v>
+        <v>300.1694450707848</v>
       </c>
       <c r="I41" t="n">
-        <v>56.76574385712079</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>79.42174720213745</v>
+        <v>116.9510516642238</v>
       </c>
       <c r="T41" t="n">
         <v>216.7230808039846</v>
@@ -25715,19 +25715,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>86.23207647738954</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>70.340976557234</v>
       </c>
       <c r="G42" t="n">
-        <v>105.5215890835718</v>
+        <v>67.99228462148537</v>
       </c>
       <c r="H42" t="n">
         <v>66.18988692910271</v>
       </c>
       <c r="I42" t="n">
-        <v>6.816603577462478</v>
+        <v>6.816603577462473</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>99.50587214380288</v>
+        <v>61.9765676817164</v>
       </c>
       <c r="T42" t="n">
         <v>156.1417168646031</v>
       </c>
       <c r="U42" t="n">
-        <v>157.8217731282328</v>
+        <v>195.3510775903192</v>
       </c>
       <c r="V42" t="n">
-        <v>174.0451072748102</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>173.5715321189481</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>141.5069106722905</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -25791,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>124.8438868601133</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25800,13 +25800,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.2436954710736</v>
+        <v>127.7143910089871</v>
       </c>
       <c r="H43" t="n">
         <v>145.1401126844127</v>
       </c>
       <c r="I43" t="n">
-        <v>105.1325298071908</v>
+        <v>67.60322534510436</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>31.86421293572598</v>
+        <v>69.39351739781233</v>
       </c>
       <c r="S43" t="n">
         <v>178.7038006680902</v>
@@ -25842,13 +25842,13 @@
         <v>235.7253416736098</v>
       </c>
       <c r="U43" t="n">
-        <v>246.8961259713512</v>
+        <v>242.4226328794703</v>
       </c>
       <c r="V43" t="n">
-        <v>233.6175831477869</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>238.749663384128</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25870,13 +25870,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>362.8899861457836</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>379.2908034637629</v>
       </c>
       <c r="G44" t="n">
         <v>403.8959782144399</v>
@@ -25885,7 +25885,7 @@
         <v>300.1694450707848</v>
       </c>
       <c r="I44" t="n">
-        <v>56.76574385712079</v>
+        <v>19.23643939503433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.42174720213748</v>
+        <v>116.9510516642238</v>
       </c>
       <c r="T44" t="n">
-        <v>179.1937763418983</v>
+        <v>216.7230808039846</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4302849789525</v>
+        <v>221.3744736087468</v>
       </c>
       <c r="V44" t="n">
-        <v>308.8098746547978</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>346.8668864859775</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -25955,16 +25955,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>70.34097655723411</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.5215890835718</v>
+        <v>67.99228462148538</v>
       </c>
       <c r="H45" t="n">
-        <v>66.18988692910271</v>
+        <v>28.66058246701627</v>
       </c>
       <c r="I45" t="n">
-        <v>6.816603577462478</v>
+        <v>6.816603577462473</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>61.97656768171653</v>
+        <v>99.50587214380286</v>
       </c>
       <c r="T45" t="n">
-        <v>118.6124124025168</v>
+        <v>156.1417168646031</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3510775903192</v>
+        <v>162.2952662201135</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>174.0451072748101</v>
       </c>
       <c r="W45" t="n">
-        <v>178.0450252108289</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -26037,7 +26037,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>127.7143910089872</v>
+        <v>127.7143910089871</v>
       </c>
       <c r="H46" t="n">
         <v>145.1401126844127</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>31.86421293572599</v>
+        <v>31.86421293572589</v>
       </c>
       <c r="S46" t="n">
-        <v>141.1744962060039</v>
+        <v>178.7038006680902</v>
       </c>
       <c r="T46" t="n">
-        <v>235.7253416736098</v>
+        <v>198.1960372115234</v>
       </c>
       <c r="U46" t="n">
-        <v>246.8961259713512</v>
+        <v>279.9519373415568</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>243.2231564760086</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>182115.7643737187</v>
+        <v>182115.7643737188</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>182115.7643737187</v>
+        <v>182115.7643737188</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>182115.7643737188</v>
+        <v>182115.7643737189</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>182115.7643737187</v>
+        <v>182115.7643737188</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>182115.7643737187</v>
+        <v>182115.7643737188</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>182115.7643737187</v>
+        <v>182115.7643737188</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>33018.7570523111</v>
       </c>
       <c r="E2" t="n">
+        <v>33111.54711965396</v>
+      </c>
+      <c r="F2" t="n">
         <v>33111.54711965397</v>
       </c>
-      <c r="F2" t="n">
-        <v>33111.54711965396</v>
-      </c>
       <c r="G2" t="n">
+        <v>36265.26230474104</v>
+      </c>
+      <c r="H2" t="n">
         <v>36265.26230474102</v>
       </c>
-      <c r="H2" t="n">
-        <v>36265.26230474101</v>
-      </c>
       <c r="I2" t="n">
-        <v>40572.38447576635</v>
+        <v>40572.38447576638</v>
       </c>
       <c r="J2" t="n">
-        <v>40572.38447576635</v>
+        <v>40572.38447576638</v>
       </c>
       <c r="K2" t="n">
-        <v>40572.38447576635</v>
+        <v>40572.38447576639</v>
       </c>
       <c r="L2" t="n">
-        <v>40572.38447576635</v>
+        <v>40572.38447576638</v>
       </c>
       <c r="M2" t="n">
-        <v>40572.38447576637</v>
+        <v>40572.3844757664</v>
       </c>
       <c r="N2" t="n">
-        <v>40572.38447576635</v>
+        <v>40572.3844757664</v>
       </c>
       <c r="O2" t="n">
-        <v>40572.38447576636</v>
+        <v>40572.3844757664</v>
       </c>
       <c r="P2" t="n">
-        <v>40572.38447576632</v>
+        <v>40572.38447576639</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24325.44045083064</v>
+        <v>24325.4404508307</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3772.972136427857</v>
+        <v>3772.972136427862</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>8682.383497347948</v>
       </c>
       <c r="D4" t="n">
-        <v>7312.066384393122</v>
+        <v>7312.066384393123</v>
       </c>
       <c r="E4" t="n">
-        <v>6392.86059823367</v>
+        <v>6392.860598233669</v>
       </c>
       <c r="F4" t="n">
         <v>6392.86059823367</v>
       </c>
       <c r="G4" t="n">
-        <v>5111.516479915267</v>
+        <v>5111.516479915268</v>
       </c>
       <c r="H4" t="n">
-        <v>5111.51647991527</v>
+        <v>5111.516479915268</v>
       </c>
       <c r="I4" t="n">
-        <v>4254.006803970131</v>
+        <v>4254.006803970128</v>
       </c>
       <c r="J4" t="n">
-        <v>4254.00680397013</v>
+        <v>4254.006803970127</v>
       </c>
       <c r="K4" t="n">
-        <v>4254.00680397013</v>
+        <v>4254.006803970127</v>
       </c>
       <c r="L4" t="n">
-        <v>4254.00680397013</v>
+        <v>4254.006803970128</v>
       </c>
       <c r="M4" t="n">
-        <v>4254.006803970129</v>
+        <v>4254.006803970127</v>
       </c>
       <c r="N4" t="n">
-        <v>4254.00680397013</v>
+        <v>4254.006803970128</v>
       </c>
       <c r="O4" t="n">
-        <v>4254.006803970129</v>
+        <v>4254.006803970128</v>
       </c>
       <c r="P4" t="n">
-        <v>4254.006803970129</v>
+        <v>4254.006803970127</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>2999.279511390021</v>
       </c>
       <c r="G5" t="n">
-        <v>4457.110399885809</v>
+        <v>4457.11039988581</v>
       </c>
       <c r="H5" t="n">
-        <v>4457.110399885809</v>
+        <v>4457.11039988581</v>
       </c>
       <c r="I5" t="n">
-        <v>6321.855464663669</v>
+        <v>6321.855464663675</v>
       </c>
       <c r="J5" t="n">
-        <v>6321.855464663669</v>
+        <v>6321.855464663675</v>
       </c>
       <c r="K5" t="n">
-        <v>6321.855464663669</v>
+        <v>6321.855464663675</v>
       </c>
       <c r="L5" t="n">
-        <v>6321.855464663669</v>
+        <v>6321.855464663675</v>
       </c>
       <c r="M5" t="n">
-        <v>6321.855464663668</v>
+        <v>6321.855464663675</v>
       </c>
       <c r="N5" t="n">
-        <v>6321.855464663668</v>
+        <v>6321.855464663674</v>
       </c>
       <c r="O5" t="n">
-        <v>6321.855464663668</v>
+        <v>6321.855464663675</v>
       </c>
       <c r="P5" t="n">
-        <v>6321.855464663666</v>
+        <v>6321.855464663674</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121796.1525665556</v>
+        <v>-123172.4642615249</v>
       </c>
       <c r="C6" t="n">
-        <v>-18670.01308602287</v>
+        <v>-20045.6774407404</v>
       </c>
       <c r="D6" t="n">
-        <v>-18773.74498518347</v>
+        <v>-20148.57847664411</v>
       </c>
       <c r="E6" t="n">
-        <v>17248.77075041182</v>
+        <v>15874.65102869996</v>
       </c>
       <c r="F6" t="n">
-        <v>23719.40701003027</v>
+        <v>22345.28728831843</v>
       </c>
       <c r="G6" t="n">
-        <v>4403.260718596353</v>
+        <v>3053.400344462111</v>
       </c>
       <c r="H6" t="n">
-        <v>26696.63542493993</v>
+        <v>25346.77505080569</v>
       </c>
       <c r="I6" t="n">
-        <v>5671.081756301903</v>
+        <v>4354.353091175503</v>
       </c>
       <c r="J6" t="n">
-        <v>29996.52220713256</v>
+        <v>28679.79354200621</v>
       </c>
       <c r="K6" t="n">
-        <v>29996.52220713255</v>
+        <v>28679.79354200622</v>
       </c>
       <c r="L6" t="n">
-        <v>29996.52220713256</v>
+        <v>28679.79354200621</v>
       </c>
       <c r="M6" t="n">
-        <v>29996.52220713257</v>
+        <v>28679.79354200622</v>
       </c>
       <c r="N6" t="n">
-        <v>29996.52220713255</v>
+        <v>28679.79354200623</v>
       </c>
       <c r="O6" t="n">
-        <v>26223.55007070471</v>
+        <v>24906.82140557837</v>
       </c>
       <c r="P6" t="n">
-        <v>29996.52220713253</v>
+        <v>28679.79354200622</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>160.7282770233651</v>
       </c>
       <c r="H3" t="n">
-        <v>160.728277023365</v>
+        <v>160.7282770233651</v>
       </c>
       <c r="I3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="J3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="K3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="L3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="M3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="N3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="O3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="P3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="H4" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="I4" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="J4" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="K4" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="L4" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="M4" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="N4" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="O4" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="P4" t="n">
-        <v>37.52930446208634</v>
+        <v>37.52930446208644</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24.59620707612197</v>
+        <v>24.59620707612203</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.85111431773687</v>
+        <v>21.85111431773692</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434954</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31764,7 +31764,7 @@
         <v>46.94299007511665</v>
       </c>
       <c r="K11" t="n">
-        <v>70.35537340776882</v>
+        <v>70.35537340776884</v>
       </c>
       <c r="L11" t="n">
         <v>87.28206196001675</v>
@@ -31791,7 +31791,7 @@
         <v>12.60358339694807</v>
       </c>
       <c r="T11" t="n">
-        <v>2.421160123758206</v>
+        <v>2.421160123758207</v>
       </c>
       <c r="U11" t="n">
         <v>0.04424735805840237</v>
@@ -31864,7 +31864,7 @@
         <v>37.77524272957209</v>
       </c>
       <c r="R12" t="n">
-        <v>18.37363716601919</v>
+        <v>18.3736371660192</v>
       </c>
       <c r="S12" t="n">
         <v>5.496775459034417</v>
@@ -31913,7 +31913,7 @@
         <v>0.2480980194411959</v>
       </c>
       <c r="H13" t="n">
-        <v>2.20581693648627</v>
+        <v>2.205816936486271</v>
       </c>
       <c r="I13" t="n">
         <v>7.460984075558875</v>
@@ -31937,7 +31937,7 @@
         <v>35.06752732974287</v>
       </c>
       <c r="P13" t="n">
-        <v>30.00632773314244</v>
+        <v>30.00632773314245</v>
       </c>
       <c r="Q13" t="n">
         <v>20.7748259733896</v>
@@ -31949,10 +31949,10 @@
         <v>4.323671847897931</v>
       </c>
       <c r="T13" t="n">
-        <v>1.060055173976018</v>
+        <v>1.060055173976019</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01353261924224706</v>
+        <v>0.01353261924224707</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32320,7 +32320,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>59.40202139935092</v>
+        <v>59.40202139935093</v>
       </c>
       <c r="M18" t="n">
         <v>73.24247388276694</v>
@@ -32329,7 +32329,7 @@
         <v>68.87158353809951</v>
       </c>
       <c r="O18" t="n">
-        <v>73.42966914434952</v>
+        <v>73.42966914434953</v>
       </c>
       <c r="P18" t="n">
         <v>66.01686533059687</v>
@@ -32463,19 +32463,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6461438272296076</v>
+        <v>0.6461438272296077</v>
       </c>
       <c r="H20" t="n">
-        <v>6.617320470615221</v>
+        <v>6.617320470615222</v>
       </c>
       <c r="I20" t="n">
-        <v>24.91045989926947</v>
+        <v>24.91045989926948</v>
       </c>
       <c r="J20" t="n">
-        <v>54.84064965632896</v>
+        <v>54.84064965632897</v>
       </c>
       <c r="K20" t="n">
-        <v>82.19191786295826</v>
+        <v>82.19191786295828</v>
       </c>
       <c r="L20" t="n">
         <v>101.9663420155364</v>
@@ -32487,10 +32487,10 @@
         <v>108.5904809009689</v>
       </c>
       <c r="O20" t="n">
-        <v>108.8679657701326</v>
+        <v>108.8679657701327</v>
       </c>
       <c r="P20" t="n">
-        <v>92.91629003540169</v>
+        <v>92.9162900354017</v>
       </c>
       <c r="Q20" t="n">
         <v>69.77626422274135</v>
@@ -32505,7 +32505,7 @@
         <v>2.828494603697609</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0516915061783686</v>
+        <v>0.05169150617836861</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3457174260502568</v>
+        <v>0.3457174260502569</v>
       </c>
       <c r="H21" t="n">
-        <v>3.338902509485376</v>
+        <v>3.338902509485377</v>
       </c>
       <c r="I21" t="n">
         <v>11.90299032673034</v>
@@ -32557,7 +32557,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>71.79271395519856</v>
+        <v>71.79271395519858</v>
       </c>
       <c r="M21" t="n">
         <v>73.24247388276694</v>
@@ -32566,25 +32566,25 @@
         <v>68.23812131004499</v>
       </c>
       <c r="O21" t="n">
-        <v>73.42966914434952</v>
+        <v>73.42966914434953</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.13052617441524</v>
+        <v>44.13052617441525</v>
       </c>
       <c r="R21" t="n">
-        <v>21.46480650512034</v>
+        <v>21.46480650512035</v>
       </c>
       <c r="S21" t="n">
-        <v>6.421549558433495</v>
+        <v>6.421549558433496</v>
       </c>
       <c r="T21" t="n">
         <v>1.39348383570257</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02274456750330638</v>
+        <v>0.02274456750330639</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,37 +32627,37 @@
         <v>2.576922211948379</v>
       </c>
       <c r="I22" t="n">
-        <v>8.716215416283468</v>
+        <v>8.71621541628347</v>
       </c>
       <c r="J22" t="n">
-        <v>20.4915378755854</v>
+        <v>20.49153787558541</v>
       </c>
       <c r="K22" t="n">
-        <v>33.67389148128859</v>
+        <v>33.6738914812886</v>
       </c>
       <c r="L22" t="n">
-        <v>43.09098758098544</v>
+        <v>43.09098758098545</v>
       </c>
       <c r="M22" t="n">
         <v>45.43340460186693</v>
       </c>
       <c r="N22" t="n">
-        <v>44.35309978908697</v>
+        <v>44.35309978908698</v>
       </c>
       <c r="O22" t="n">
         <v>40.96726641244722</v>
       </c>
       <c r="P22" t="n">
-        <v>35.05457372981716</v>
+        <v>35.05457372981717</v>
       </c>
       <c r="Q22" t="n">
         <v>24.26996983052812</v>
       </c>
       <c r="R22" t="n">
-        <v>13.0321648878289</v>
+        <v>13.03216488782891</v>
       </c>
       <c r="S22" t="n">
-        <v>5.051083722193288</v>
+        <v>5.051083722193289</v>
       </c>
       <c r="T22" t="n">
         <v>1.238398200016091</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.745023051656229</v>
       </c>
       <c r="H23" t="n">
-        <v>7.629967327774352</v>
+        <v>7.629967327774356</v>
       </c>
       <c r="I23" t="n">
-        <v>28.72250119897678</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J23" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K23" t="n">
-        <v>94.76972600711606</v>
+        <v>94.76972600711611</v>
       </c>
       <c r="L23" t="n">
         <v>117.5702252242404</v>
       </c>
       <c r="M23" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N23" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O23" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P23" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.4541080695416</v>
+        <v>80.45410806954165</v>
       </c>
       <c r="R23" t="n">
-        <v>46.79955426860061</v>
+        <v>46.79955426860063</v>
       </c>
       <c r="S23" t="n">
-        <v>16.97721278961632</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T23" t="n">
-        <v>3.261338408625142</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.0596018441324983</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.398622475232859</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8498539055384</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I24" t="n">
         <v>13.72450188849975</v>
       </c>
       <c r="J24" t="n">
-        <v>37.66108218855707</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K24" t="n">
-        <v>61.83985262458935</v>
+        <v>64.36878802915865</v>
       </c>
       <c r="L24" t="n">
-        <v>86.55177910702929</v>
+        <v>86.55177910702933</v>
       </c>
       <c r="M24" t="n">
-        <v>95.0935882005038</v>
+        <v>92.56465279593462</v>
       </c>
       <c r="N24" t="n">
-        <v>90.72269785583637</v>
+        <v>90.72269785583644</v>
       </c>
       <c r="O24" t="n">
-        <v>94.84242725419689</v>
+        <v>94.84242725419693</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.88380929463651</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R24" t="n">
-        <v>24.74956034822961</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S24" t="n">
-        <v>7.404237643031386</v>
+        <v>7.404237643031389</v>
       </c>
       <c r="T24" t="n">
-        <v>1.606728310258759</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3341916926384193</v>
       </c>
       <c r="H25" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I25" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J25" t="n">
-        <v>23.62735266953623</v>
+        <v>23.62735266953624</v>
       </c>
       <c r="K25" t="n">
-        <v>38.82699847199087</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L25" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644282</v>
       </c>
       <c r="M25" t="n">
-        <v>52.38606687422055</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N25" t="n">
-        <v>51.1404432925683</v>
+        <v>51.14044329256833</v>
       </c>
       <c r="O25" t="n">
-        <v>47.2364767012922</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P25" t="n">
-        <v>40.41896617146842</v>
+        <v>40.41896617146844</v>
       </c>
       <c r="Q25" t="n">
-        <v>27.98399709902253</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R25" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S25" t="n">
-        <v>5.82404977079863</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T25" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.7450230516562291</v>
       </c>
       <c r="H26" t="n">
-        <v>7.629967327774352</v>
+        <v>7.629967327774358</v>
       </c>
       <c r="I26" t="n">
-        <v>28.72250119897678</v>
+        <v>28.7225011989768</v>
       </c>
       <c r="J26" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K26" t="n">
-        <v>94.76972600711606</v>
+        <v>94.76972600711612</v>
       </c>
       <c r="L26" t="n">
-        <v>117.5702252242404</v>
+        <v>117.5702252242405</v>
       </c>
       <c r="M26" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N26" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O26" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P26" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.4541080695416</v>
+        <v>80.45410806954166</v>
       </c>
       <c r="R26" t="n">
-        <v>46.79955426860061</v>
+        <v>46.79955426860064</v>
       </c>
       <c r="S26" t="n">
-        <v>16.97721278961632</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T26" t="n">
-        <v>3.261338408625142</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.05960184413249831</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.3986224752328591</v>
       </c>
       <c r="H27" t="n">
-        <v>3.8498539055384</v>
+        <v>3.849853905538403</v>
       </c>
       <c r="I27" t="n">
-        <v>13.72450188849975</v>
+        <v>13.72450188849976</v>
       </c>
       <c r="J27" t="n">
-        <v>37.66108218855707</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K27" t="n">
-        <v>64.36878802915861</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>86.55177910702929</v>
+        <v>86.55177910702935</v>
       </c>
       <c r="M27" t="n">
-        <v>95.0935882005038</v>
+        <v>95.09358820050387</v>
       </c>
       <c r="N27" t="n">
-        <v>90.72269785583637</v>
+        <v>90.72269785583644</v>
       </c>
       <c r="O27" t="n">
-        <v>70.45371752485151</v>
+        <v>94.84242725419695</v>
       </c>
       <c r="P27" t="n">
-        <v>76.11940932757986</v>
+        <v>60.27370484277773</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.88380929463651</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R27" t="n">
-        <v>24.74956034822961</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S27" t="n">
-        <v>7.404237643031386</v>
+        <v>7.404237643031391</v>
       </c>
       <c r="T27" t="n">
-        <v>1.606728310258759</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426706</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3341916926384194</v>
       </c>
       <c r="H28" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I28" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J28" t="n">
-        <v>23.62735266953623</v>
+        <v>23.62735266953625</v>
       </c>
       <c r="K28" t="n">
-        <v>38.82699847199087</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L28" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644283</v>
       </c>
       <c r="M28" t="n">
-        <v>52.38606687422055</v>
+        <v>52.38606687422058</v>
       </c>
       <c r="N28" t="n">
-        <v>51.1404432925683</v>
+        <v>51.14044329256834</v>
       </c>
       <c r="O28" t="n">
-        <v>47.2364767012922</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P28" t="n">
-        <v>40.41896617146842</v>
+        <v>40.41896617146845</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.98399709902253</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R28" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S28" t="n">
-        <v>5.82404977079863</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T28" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.7450230516562291</v>
       </c>
       <c r="H29" t="n">
-        <v>7.629967327774352</v>
+        <v>7.629967327774358</v>
       </c>
       <c r="I29" t="n">
-        <v>28.72250119897678</v>
+        <v>28.7225011989768</v>
       </c>
       <c r="J29" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K29" t="n">
-        <v>94.76972600711606</v>
+        <v>94.76972600711612</v>
       </c>
       <c r="L29" t="n">
-        <v>117.5702252242404</v>
+        <v>117.5702252242405</v>
       </c>
       <c r="M29" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N29" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O29" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P29" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.4541080695416</v>
+        <v>80.45410806954166</v>
       </c>
       <c r="R29" t="n">
-        <v>46.79955426860061</v>
+        <v>46.79955426860064</v>
       </c>
       <c r="S29" t="n">
-        <v>16.97721278961632</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T29" t="n">
-        <v>3.261338408625142</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.05960184413249831</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.3986224752328591</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8498539055384</v>
+        <v>3.849853905538403</v>
       </c>
       <c r="I30" t="n">
-        <v>13.72450188849975</v>
+        <v>13.72450188849976</v>
       </c>
       <c r="J30" t="n">
-        <v>37.66108218855707</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>64.36878802915865</v>
       </c>
       <c r="L30" t="n">
-        <v>86.55177910702929</v>
+        <v>84.02284370246008</v>
       </c>
       <c r="M30" t="n">
-        <v>95.0935882005038</v>
+        <v>95.09358820050387</v>
       </c>
       <c r="N30" t="n">
-        <v>74.87699337103423</v>
+        <v>90.72269785583644</v>
       </c>
       <c r="O30" t="n">
-        <v>94.84242725419689</v>
+        <v>94.84242725419695</v>
       </c>
       <c r="P30" t="n">
-        <v>76.11940932757986</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.88380929463651</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R30" t="n">
-        <v>24.74956034822961</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S30" t="n">
-        <v>7.404237643031386</v>
+        <v>7.404237643031391</v>
       </c>
       <c r="T30" t="n">
-        <v>1.606728310258759</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426706</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3341916926384194</v>
       </c>
       <c r="H31" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I31" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J31" t="n">
-        <v>23.62735266953623</v>
+        <v>23.62735266953625</v>
       </c>
       <c r="K31" t="n">
-        <v>38.82699847199087</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L31" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644283</v>
       </c>
       <c r="M31" t="n">
-        <v>52.38606687422055</v>
+        <v>52.38606687422058</v>
       </c>
       <c r="N31" t="n">
-        <v>51.1404432925683</v>
+        <v>51.14044329256834</v>
       </c>
       <c r="O31" t="n">
-        <v>47.2364767012922</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P31" t="n">
-        <v>40.41896617146842</v>
+        <v>40.41896617146845</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.98399709902253</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R31" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S31" t="n">
-        <v>5.82404977079863</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T31" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.745023051656229</v>
       </c>
       <c r="H32" t="n">
-        <v>7.629967327774352</v>
+        <v>7.629967327774356</v>
       </c>
       <c r="I32" t="n">
-        <v>28.72250119897678</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J32" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K32" t="n">
-        <v>94.76972600711606</v>
+        <v>94.76972600711611</v>
       </c>
       <c r="L32" t="n">
         <v>117.5702252242404</v>
       </c>
       <c r="M32" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N32" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O32" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P32" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.4541080695416</v>
+        <v>80.45410806954165</v>
       </c>
       <c r="R32" t="n">
-        <v>46.79955426860061</v>
+        <v>46.79955426860063</v>
       </c>
       <c r="S32" t="n">
-        <v>16.97721278961632</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T32" t="n">
-        <v>3.261338408625142</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.0596018441324983</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.398622475232859</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8498539055384</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I33" t="n">
         <v>13.72450188849975</v>
       </c>
       <c r="J33" t="n">
-        <v>37.66108218855707</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K33" t="n">
-        <v>64.36878802915861</v>
+        <v>64.36878802915865</v>
       </c>
       <c r="L33" t="n">
-        <v>86.55177910702929</v>
+        <v>86.55177910702933</v>
       </c>
       <c r="M33" t="n">
-        <v>95.0935882005038</v>
+        <v>70.70487847115848</v>
       </c>
       <c r="N33" t="n">
-        <v>90.72269785583637</v>
+        <v>90.72269785583644</v>
       </c>
       <c r="O33" t="n">
-        <v>70.45371752485151</v>
+        <v>94.84242725419693</v>
       </c>
       <c r="P33" t="n">
-        <v>76.11940932757986</v>
+        <v>76.1194093275799</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.88380929463651</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R33" t="n">
-        <v>24.74956034822961</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S33" t="n">
-        <v>7.404237643031386</v>
+        <v>7.404237643031389</v>
       </c>
       <c r="T33" t="n">
-        <v>1.606728310258759</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3341916926384193</v>
       </c>
       <c r="H34" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I34" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J34" t="n">
-        <v>23.62735266953623</v>
+        <v>23.62735266953624</v>
       </c>
       <c r="K34" t="n">
-        <v>38.82699847199087</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L34" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644282</v>
       </c>
       <c r="M34" t="n">
-        <v>52.38606687422055</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N34" t="n">
-        <v>51.1404432925683</v>
+        <v>51.14044329256833</v>
       </c>
       <c r="O34" t="n">
-        <v>47.2364767012922</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P34" t="n">
-        <v>40.41896617146842</v>
+        <v>40.41896617146844</v>
       </c>
       <c r="Q34" t="n">
-        <v>27.98399709902253</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R34" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S34" t="n">
-        <v>5.82404977079863</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T34" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.745023051656229</v>
       </c>
       <c r="H35" t="n">
-        <v>7.629967327774352</v>
+        <v>7.629967327774356</v>
       </c>
       <c r="I35" t="n">
-        <v>28.72250119897678</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J35" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K35" t="n">
-        <v>94.76972600711606</v>
+        <v>94.76972600711611</v>
       </c>
       <c r="L35" t="n">
         <v>117.5702252242404</v>
       </c>
       <c r="M35" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N35" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O35" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P35" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.4541080695416</v>
+        <v>80.45410806954165</v>
       </c>
       <c r="R35" t="n">
-        <v>46.79955426860061</v>
+        <v>46.79955426860063</v>
       </c>
       <c r="S35" t="n">
-        <v>16.97721278961632</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T35" t="n">
-        <v>3.261338408625142</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.0596018441324983</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.398622475232859</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8498539055384</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I36" t="n">
         <v>13.72450188849975</v>
       </c>
       <c r="J36" t="n">
-        <v>37.66108218855707</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>64.36878802915865</v>
       </c>
       <c r="L36" t="n">
-        <v>86.55177910702929</v>
+        <v>86.55177910702933</v>
       </c>
       <c r="M36" t="n">
-        <v>95.09358820050377</v>
+        <v>92.56465279593462</v>
       </c>
       <c r="N36" t="n">
-        <v>74.87699337103413</v>
+        <v>90.72269785583644</v>
       </c>
       <c r="O36" t="n">
-        <v>94.84242725419689</v>
+        <v>94.84242725419693</v>
       </c>
       <c r="P36" t="n">
-        <v>76.11940932757986</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.88380929463651</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R36" t="n">
-        <v>24.74956034822961</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S36" t="n">
-        <v>7.404237643031386</v>
+        <v>7.404237643031389</v>
       </c>
       <c r="T36" t="n">
-        <v>1.606728310258759</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3341916926384193</v>
       </c>
       <c r="H37" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I37" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J37" t="n">
-        <v>23.62735266953623</v>
+        <v>23.62735266953624</v>
       </c>
       <c r="K37" t="n">
-        <v>38.82699847199087</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L37" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644282</v>
       </c>
       <c r="M37" t="n">
-        <v>52.38606687422055</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N37" t="n">
-        <v>51.1404432925683</v>
+        <v>51.14044329256833</v>
       </c>
       <c r="O37" t="n">
-        <v>47.2364767012922</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P37" t="n">
-        <v>40.41896617146842</v>
+        <v>40.41896617146844</v>
       </c>
       <c r="Q37" t="n">
-        <v>27.98399709902253</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R37" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S37" t="n">
-        <v>5.82404977079863</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T37" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.745023051656229</v>
       </c>
       <c r="H38" t="n">
-        <v>7.629967327774352</v>
+        <v>7.629967327774356</v>
       </c>
       <c r="I38" t="n">
-        <v>28.72250119897678</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J38" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K38" t="n">
-        <v>94.76972600711606</v>
+        <v>94.76972600711611</v>
       </c>
       <c r="L38" t="n">
         <v>117.5702252242404</v>
       </c>
       <c r="M38" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N38" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O38" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P38" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.4541080695416</v>
+        <v>80.45410806954165</v>
       </c>
       <c r="R38" t="n">
-        <v>46.79955426860061</v>
+        <v>46.79955426860063</v>
       </c>
       <c r="S38" t="n">
-        <v>16.97721278961632</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T38" t="n">
-        <v>3.261338408625142</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.0596018441324983</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.398622475232859</v>
       </c>
       <c r="H39" t="n">
-        <v>3.8498539055384</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I39" t="n">
         <v>13.72450188849975</v>
       </c>
       <c r="J39" t="n">
-        <v>37.66108218855707</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K39" t="n">
-        <v>64.36878802915861</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>86.55177910702929</v>
+        <v>86.55177910702933</v>
       </c>
       <c r="M39" t="n">
-        <v>70.70487847115835</v>
+        <v>79.24788371570172</v>
       </c>
       <c r="N39" t="n">
-        <v>90.72269785583634</v>
+        <v>90.72269785583643</v>
       </c>
       <c r="O39" t="n">
-        <v>94.84242725419689</v>
+        <v>94.84242725419693</v>
       </c>
       <c r="P39" t="n">
-        <v>76.11940932757986</v>
+        <v>76.1194093275799</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.88380929463651</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R39" t="n">
-        <v>24.74956034822961</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S39" t="n">
-        <v>7.404237643031386</v>
+        <v>7.404237643031389</v>
       </c>
       <c r="T39" t="n">
-        <v>1.606728310258759</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3341916926384193</v>
       </c>
       <c r="H40" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I40" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J40" t="n">
-        <v>23.62735266953623</v>
+        <v>23.62735266953624</v>
       </c>
       <c r="K40" t="n">
-        <v>38.82699847199087</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L40" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644282</v>
       </c>
       <c r="M40" t="n">
-        <v>52.38606687422055</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N40" t="n">
-        <v>51.1404432925683</v>
+        <v>51.14044329256833</v>
       </c>
       <c r="O40" t="n">
-        <v>47.2364767012922</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P40" t="n">
-        <v>40.41896617146842</v>
+        <v>40.41896617146844</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.98399709902253</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R40" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S40" t="n">
-        <v>5.82404977079863</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T40" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.745023051656229</v>
       </c>
       <c r="H41" t="n">
-        <v>7.629967327774352</v>
+        <v>7.629967327774356</v>
       </c>
       <c r="I41" t="n">
-        <v>28.72250119897678</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J41" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K41" t="n">
-        <v>94.76972600711606</v>
+        <v>94.76972600711611</v>
       </c>
       <c r="L41" t="n">
         <v>117.5702252242404</v>
       </c>
       <c r="M41" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N41" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O41" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P41" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.4541080695416</v>
+        <v>80.45410806954165</v>
       </c>
       <c r="R41" t="n">
-        <v>46.79955426860061</v>
+        <v>46.79955426860063</v>
       </c>
       <c r="S41" t="n">
-        <v>16.97721278961632</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T41" t="n">
-        <v>3.261338408625142</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.0596018441324983</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.398622475232859</v>
       </c>
       <c r="H42" t="n">
-        <v>3.8498539055384</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I42" t="n">
         <v>13.72450188849975</v>
       </c>
       <c r="J42" t="n">
-        <v>37.66108218855707</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>64.36878802915865</v>
       </c>
       <c r="L42" t="n">
-        <v>86.55177910702929</v>
+        <v>86.55177910702933</v>
       </c>
       <c r="M42" t="n">
-        <v>95.09358820050377</v>
+        <v>95.09358820050389</v>
       </c>
       <c r="N42" t="n">
-        <v>74.87699337103413</v>
+        <v>66.33398812649108</v>
       </c>
       <c r="O42" t="n">
-        <v>94.84242725419689</v>
+        <v>94.84242725419693</v>
       </c>
       <c r="P42" t="n">
-        <v>76.11940932757986</v>
+        <v>76.1194093275799</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.88380929463651</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R42" t="n">
-        <v>24.74956034822961</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S42" t="n">
-        <v>7.404237643031386</v>
+        <v>7.404237643031389</v>
       </c>
       <c r="T42" t="n">
-        <v>1.606728310258759</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3341916926384193</v>
       </c>
       <c r="H43" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I43" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J43" t="n">
-        <v>23.62735266953623</v>
+        <v>23.62735266953624</v>
       </c>
       <c r="K43" t="n">
-        <v>38.82699847199087</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L43" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644282</v>
       </c>
       <c r="M43" t="n">
-        <v>52.38606687422055</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N43" t="n">
-        <v>51.1404432925683</v>
+        <v>51.14044329256833</v>
       </c>
       <c r="O43" t="n">
-        <v>47.2364767012922</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P43" t="n">
-        <v>40.41896617146842</v>
+        <v>40.41896617146844</v>
       </c>
       <c r="Q43" t="n">
-        <v>27.98399709902253</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R43" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S43" t="n">
-        <v>5.82404977079863</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T43" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.745023051656229</v>
       </c>
       <c r="H44" t="n">
-        <v>7.629967327774352</v>
+        <v>7.629967327774356</v>
       </c>
       <c r="I44" t="n">
-        <v>28.72250119897678</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J44" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K44" t="n">
-        <v>94.76972600711606</v>
+        <v>94.76972600711611</v>
       </c>
       <c r="L44" t="n">
         <v>117.5702252242404</v>
       </c>
       <c r="M44" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N44" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O44" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P44" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.4541080695416</v>
+        <v>80.45410806954165</v>
       </c>
       <c r="R44" t="n">
-        <v>46.79955426860061</v>
+        <v>46.79955426860063</v>
       </c>
       <c r="S44" t="n">
-        <v>16.97721278961632</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T44" t="n">
-        <v>3.261338408625142</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.0596018441324983</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.398622475232859</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8498539055384</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I45" t="n">
         <v>13.72450188849975</v>
       </c>
       <c r="J45" t="n">
-        <v>37.66108218855707</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>70.70607462222705</v>
+        <v>86.55177910702933</v>
       </c>
       <c r="M45" t="n">
-        <v>95.09358820050377</v>
+        <v>95.09358820050386</v>
       </c>
       <c r="N45" t="n">
-        <v>90.72269785583634</v>
+        <v>90.72269785583643</v>
       </c>
       <c r="O45" t="n">
-        <v>94.84242725419689</v>
+        <v>94.84242725419693</v>
       </c>
       <c r="P45" t="n">
-        <v>76.11940932757986</v>
+        <v>60.27370484277775</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.88380929463651</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R45" t="n">
-        <v>24.74956034822961</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S45" t="n">
-        <v>7.404237643031386</v>
+        <v>7.404237643031389</v>
       </c>
       <c r="T45" t="n">
-        <v>1.606728310258759</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3341916926384193</v>
       </c>
       <c r="H46" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I46" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J46" t="n">
-        <v>23.62735266953623</v>
+        <v>23.62735266953624</v>
       </c>
       <c r="K46" t="n">
-        <v>38.82699847199087</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L46" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644282</v>
       </c>
       <c r="M46" t="n">
-        <v>52.38606687422055</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N46" t="n">
-        <v>51.1404432925683</v>
+        <v>51.14044329256833</v>
       </c>
       <c r="O46" t="n">
-        <v>47.2364767012922</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P46" t="n">
-        <v>40.41896617146842</v>
+        <v>40.41896617146844</v>
       </c>
       <c r="Q46" t="n">
-        <v>27.98399709902253</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R46" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S46" t="n">
-        <v>5.82404977079863</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T46" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35892,19 +35892,19 @@
         <v>6.48094395269159</v>
       </c>
       <c r="M17" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="N17" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="O17" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.563783963603404</v>
+        <v>8.563783963603411</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3.28749758850187</v>
+        <v>3.287497588501876</v>
       </c>
       <c r="M18" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="N18" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="O18" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P18" t="n">
         <v>11.75723032779312</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>15.67819014434953</v>
+      </c>
+      <c r="O19" t="n">
+        <v>15.67819014434953</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>15.044727916295</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>6.480943952691575</v>
+        <v>6.48094395269159</v>
       </c>
       <c r="M20" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="N20" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="O20" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>8.563783963603411</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>8.563783963603418</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="M21" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="N21" t="n">
         <v>15.044727916295</v>
       </c>
       <c r="O21" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36287,19 +36287,19 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>15.04472791629499</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="O22" t="n">
-        <v>15.67819014434952</v>
+        <v>15.044727916295</v>
       </c>
       <c r="P22" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.633336333898939</v>
+        <v>5.633336333898981</v>
       </c>
       <c r="L23" t="n">
-        <v>22.08482716139557</v>
+        <v>22.08482716139562</v>
       </c>
       <c r="M23" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="N23" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="O23" t="n">
-        <v>32.33822706896035</v>
+        <v>32.33822706896041</v>
       </c>
       <c r="P23" t="n">
-        <v>13.48588282609616</v>
+        <v>13.4858828260962</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>6.014069839973958</v>
+        <v>8.543005244543259</v>
       </c>
       <c r="L24" t="n">
-        <v>30.43725529618024</v>
+        <v>30.43725529618028</v>
       </c>
       <c r="M24" t="n">
-        <v>37.52930446208639</v>
+        <v>35.0003690575172</v>
       </c>
       <c r="N24" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="O24" t="n">
-        <v>37.0909482541969</v>
+        <v>37.09094825419694</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="L25" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>36.0129689282647</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>36.01296892826479</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5.633336333898939</v>
+        <v>5.633336333898995</v>
       </c>
       <c r="L26" t="n">
-        <v>22.08482716139565</v>
+        <v>22.08482716139564</v>
       </c>
       <c r="M26" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="N26" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="O26" t="n">
-        <v>32.33822706896035</v>
+        <v>32.33822706896042</v>
       </c>
       <c r="P26" t="n">
-        <v>13.48588282609616</v>
+        <v>13.48588282609623</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>8.543005244543217</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>30.43725529618024</v>
+        <v>30.4372552961803</v>
       </c>
       <c r="M27" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="N27" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="O27" t="n">
-        <v>12.70223852485152</v>
+        <v>37.09094825419695</v>
       </c>
       <c r="P27" t="n">
-        <v>21.85977432477611</v>
+        <v>6.014069839973975</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="N28" t="n">
-        <v>37.52930446208639</v>
+        <v>36.01296892826479</v>
       </c>
       <c r="O28" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>36.0129689282647</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.633336333898939</v>
+        <v>5.633336333898995</v>
       </c>
       <c r="L29" t="n">
-        <v>22.08482716139565</v>
+        <v>22.08482716139564</v>
       </c>
       <c r="M29" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="N29" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="O29" t="n">
-        <v>32.33822706896035</v>
+        <v>32.33822706896042</v>
       </c>
       <c r="P29" t="n">
-        <v>13.48588282609616</v>
+        <v>13.48588282609623</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>8.543005244543259</v>
       </c>
       <c r="L30" t="n">
-        <v>30.43725529618024</v>
+        <v>27.90831989161102</v>
       </c>
       <c r="M30" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="N30" t="n">
-        <v>21.68359997728423</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="O30" t="n">
-        <v>37.0909482541969</v>
+        <v>37.09094825419695</v>
       </c>
       <c r="P30" t="n">
-        <v>21.85977432477611</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>36.01296892826479</v>
       </c>
       <c r="M31" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="N31" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="O31" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>36.0129689282647</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5.633336333898939</v>
+        <v>5.633336333898981</v>
       </c>
       <c r="L32" t="n">
-        <v>22.08482716139557</v>
+        <v>22.08482716139562</v>
       </c>
       <c r="M32" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="N32" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="O32" t="n">
-        <v>32.33822706896035</v>
+        <v>32.33822706896041</v>
       </c>
       <c r="P32" t="n">
-        <v>13.48588282609616</v>
+        <v>13.48588282609622</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>8.543005244543217</v>
+        <v>8.543005244543259</v>
       </c>
       <c r="L33" t="n">
-        <v>30.43725529618024</v>
+        <v>30.43725529618028</v>
       </c>
       <c r="M33" t="n">
-        <v>37.52930446208639</v>
+        <v>13.14059473274105</v>
       </c>
       <c r="N33" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="O33" t="n">
-        <v>12.70223852485152</v>
+        <v>37.09094825419694</v>
       </c>
       <c r="P33" t="n">
-        <v>21.85977432477611</v>
+        <v>21.85977432477615</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="M34" t="n">
-        <v>37.52930446208639</v>
+        <v>36.01296892826479</v>
       </c>
       <c r="N34" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>36.0129689282647</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>5.633336333898939</v>
+        <v>5.633336333898981</v>
       </c>
       <c r="L35" t="n">
-        <v>22.08482716139559</v>
+        <v>22.08482716139562</v>
       </c>
       <c r="M35" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="N35" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="O35" t="n">
-        <v>32.33822706896035</v>
+        <v>32.33822706896041</v>
       </c>
       <c r="P35" t="n">
-        <v>13.48588282609616</v>
+        <v>13.4858828260962</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>8.543005244543259</v>
       </c>
       <c r="L36" t="n">
-        <v>30.43725529618024</v>
+        <v>30.43725529618028</v>
       </c>
       <c r="M36" t="n">
-        <v>37.52930446208636</v>
+        <v>35.0003690575172</v>
       </c>
       <c r="N36" t="n">
-        <v>21.68359997728415</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="O36" t="n">
-        <v>37.0909482541969</v>
+        <v>37.09094825419694</v>
       </c>
       <c r="P36" t="n">
-        <v>21.85977432477611</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="L37" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>37.52930446208636</v>
+        <v>36.01296892826479</v>
       </c>
       <c r="O37" t="n">
-        <v>36.01296892826467</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>37.52930446208645</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>5.633336333898939</v>
+        <v>5.633336333898981</v>
       </c>
       <c r="L38" t="n">
-        <v>22.08482716139557</v>
+        <v>22.08482716139562</v>
       </c>
       <c r="M38" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="N38" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="O38" t="n">
-        <v>32.33822706896035</v>
+        <v>32.33822706896041</v>
       </c>
       <c r="P38" t="n">
-        <v>13.48588282609616</v>
+        <v>13.4858828260962</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>8.543005244543217</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>30.43725529618024</v>
+        <v>30.43725529618028</v>
       </c>
       <c r="M39" t="n">
-        <v>13.14059473274093</v>
+        <v>21.68359997728429</v>
       </c>
       <c r="N39" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="O39" t="n">
-        <v>37.0909482541969</v>
+        <v>37.09094825419694</v>
       </c>
       <c r="P39" t="n">
-        <v>21.85977432477611</v>
+        <v>21.85977432477615</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="L40" t="n">
-        <v>37.52930446208636</v>
+        <v>36.01296892826479</v>
       </c>
       <c r="M40" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="N40" t="n">
-        <v>36.01296892826467</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>5.633336333898939</v>
+        <v>5.633336333898981</v>
       </c>
       <c r="L41" t="n">
-        <v>22.08482716139557</v>
+        <v>22.08482716139562</v>
       </c>
       <c r="M41" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="N41" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="O41" t="n">
-        <v>32.33822706896035</v>
+        <v>32.33822706896041</v>
       </c>
       <c r="P41" t="n">
-        <v>13.48588282609616</v>
+        <v>13.4858828260962</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>8.543005244543259</v>
       </c>
       <c r="L42" t="n">
-        <v>30.43725529618024</v>
+        <v>30.43725529618028</v>
       </c>
       <c r="M42" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="N42" t="n">
-        <v>21.68359997728415</v>
+        <v>13.14059473274108</v>
       </c>
       <c r="O42" t="n">
-        <v>37.0909482541969</v>
+        <v>37.09094825419694</v>
       </c>
       <c r="P42" t="n">
-        <v>21.85977432477611</v>
+        <v>21.85977432477615</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>37.52930446208636</v>
+        <v>36.01296892826478</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="M43" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="N43" t="n">
-        <v>36.01296892826467</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>5.633336333898939</v>
+        <v>5.633336333898981</v>
       </c>
       <c r="L44" t="n">
-        <v>22.08482716139557</v>
+        <v>22.08482716139562</v>
       </c>
       <c r="M44" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="N44" t="n">
-        <v>37.52930446208634</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="O44" t="n">
-        <v>32.33822706896035</v>
+        <v>32.33822706896041</v>
       </c>
       <c r="P44" t="n">
-        <v>13.48588282609616</v>
+        <v>13.48588282609619</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>14.591550811378</v>
+        <v>30.43725529618028</v>
       </c>
       <c r="M45" t="n">
-        <v>37.52930446208634</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="N45" t="n">
-        <v>37.52930446208634</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="O45" t="n">
-        <v>37.0909482541969</v>
+        <v>37.09094825419694</v>
       </c>
       <c r="P45" t="n">
-        <v>21.85977432477611</v>
+        <v>6.014069839974004</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="L46" t="n">
-        <v>37.52930446208634</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>37.52930446208634</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>36.01296892826466</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.52930446208634</v>
+        <v>36.01296892826478</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
